--- a/Running projects/Spar DHA Phase-II Karachi/Proposal for Spar super market.xlsx
+++ b/Running projects/Spar DHA Phase-II Karachi/Proposal for Spar super market.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Spar DHA Phase-II Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B4BAD-50CD-4FB2-99C5-FC352C5E0887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FBE68-3D6D-4B49-9972-2F266873A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2234,7 +2234,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="500">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3598,6 +3598,15 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3993,9 +4002,9 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H12" sqref="H12"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4010,7 +4019,7 @@
     <col min="8" max="8" width="10.625" style="31" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="31" customWidth="1"/>
     <col min="10" max="10" width="16.625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="30"/>
     <col min="13" max="13" width="9" style="29"/>
     <col min="14" max="14" width="21" style="29" customWidth="1"/>
@@ -5615,7 +5624,10 @@
         <v>505000</v>
       </c>
       <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
+      <c r="L53" s="500">
+        <f>G53+G52+G51+G50+G49+G48+G47</f>
+        <v>2177100</v>
+      </c>
     </row>
     <row r="54" spans="1:14" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
@@ -5651,7 +5663,10 @@
         <v>483000</v>
       </c>
       <c r="K54" s="85"/>
-      <c r="L54" s="128"/>
+      <c r="L54" s="501">
+        <f>L53*20%</f>
+        <v>435420</v>
+      </c>
       <c r="M54" s="128"/>
       <c r="N54" s="70"/>
     </row>
@@ -5689,7 +5704,10 @@
         <v>422500</v>
       </c>
       <c r="K55" s="85"/>
-      <c r="L55" s="128"/>
+      <c r="L55" s="501">
+        <f>L53-L54</f>
+        <v>1741680</v>
+      </c>
       <c r="M55" s="128"/>
       <c r="N55" s="70"/>
     </row>
@@ -6546,7 +6564,10 @@
         <f>SUM(J10:J79)</f>
         <v>21490260</v>
       </c>
-      <c r="K80" s="146"/>
+      <c r="K80" s="502">
+        <f>J80*16%</f>
+        <v>3438441.6</v>
+      </c>
       <c r="L80" s="160"/>
       <c r="N80" s="473" t="s">
         <v>82</v>
@@ -6564,7 +6585,10 @@
       <c r="H81" s="84"/>
       <c r="I81" s="84"/>
       <c r="J81" s="84"/>
-      <c r="K81" s="225"/>
+      <c r="K81" s="225">
+        <f>J80-K80</f>
+        <v>18051818.399999999</v>
+      </c>
       <c r="L81" s="146"/>
       <c r="N81" s="470" t="s">
         <v>257</v>
@@ -11806,7 +11830,7 @@
       <c r="I43" s="422"/>
       <c r="J43" s="423"/>
     </row>
-    <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="256">
         <v>3.1</v>
       </c>
@@ -12363,7 +12387,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="256">
         <f>A63+0.1</f>
         <v>4.2999999999999989</v>

--- a/Running projects/Spar DHA Phase-II Karachi/Proposal for Spar super market.xlsx
+++ b/Running projects/Spar DHA Phase-II Karachi/Proposal for Spar super market.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Spar DHA Phase-II Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FBE68-3D6D-4B49-9972-2F266873A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D86C77-0F12-4A34-985C-0575169269B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="265">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>Dia  4"             (Welded joints fitting)</t>
+  </si>
+  <si>
+    <t>After deletion of fire scope, HVAC amount will be revised</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2237,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2860,9 +2863,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="70" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="71" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="72" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -3518,6 +3518,15 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="85" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3599,13 +3608,13 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4004,7 +4013,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H12" sqref="H12"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4126,14 +4135,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="112"/>
       <c r="E7" s="113"/>
-      <c r="F7" s="477" t="s">
+      <c r="F7" s="479" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="478"/>
-      <c r="H7" s="479" t="s">
+      <c r="G7" s="480"/>
+      <c r="H7" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="478"/>
+      <c r="I7" s="480"/>
       <c r="J7" s="123" t="s">
         <v>8</v>
       </c>
@@ -4141,10 +4150,10 @@
       <c r="L7" s="146"/>
     </row>
     <row r="8" spans="1:12" s="120" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="475" t="s">
+      <c r="A8" s="477" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="476"/>
+      <c r="B8" s="478"/>
       <c r="C8" s="114" t="s">
         <v>0</v>
       </c>
@@ -5624,7 +5633,7 @@
         <v>505000</v>
       </c>
       <c r="K53" s="146"/>
-      <c r="L53" s="500">
+      <c r="L53" s="472">
         <f>G53+G52+G51+G50+G49+G48+G47</f>
         <v>2177100</v>
       </c>
@@ -5663,7 +5672,7 @@
         <v>483000</v>
       </c>
       <c r="K54" s="85"/>
-      <c r="L54" s="501">
+      <c r="L54" s="473">
         <f>L53*20%</f>
         <v>435420</v>
       </c>
@@ -5704,7 +5713,7 @@
         <v>422500</v>
       </c>
       <c r="K55" s="85"/>
-      <c r="L55" s="501">
+      <c r="L55" s="473">
         <f>L53-L54</f>
         <v>1741680</v>
       </c>
@@ -6564,15 +6573,15 @@
         <f>SUM(J10:J79)</f>
         <v>21490260</v>
       </c>
-      <c r="K80" s="502">
+      <c r="K80" s="474">
         <f>J80*16%</f>
         <v>3438441.6</v>
       </c>
       <c r="L80" s="160"/>
-      <c r="N80" s="473" t="s">
+      <c r="N80" s="475" t="s">
         <v>82</v>
       </c>
-      <c r="O80" s="473"/>
+      <c r="O80" s="475"/>
     </row>
     <row r="81" spans="1:15" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="79"/>
@@ -6585,15 +6594,17 @@
       <c r="H81" s="84"/>
       <c r="I81" s="84"/>
       <c r="J81" s="84"/>
-      <c r="K81" s="225">
+      <c r="K81" s="504">
         <f>J80-K80</f>
         <v>18051818.399999999</v>
       </c>
-      <c r="L81" s="146"/>
-      <c r="N81" s="470" t="s">
+      <c r="L81" s="146" t="s">
         <v>257</v>
       </c>
-      <c r="O81" s="472">
+      <c r="N81" s="469" t="s">
+        <v>257</v>
+      </c>
+      <c r="O81" s="471">
         <f>J80</f>
         <v>21490260</v>
       </c>
@@ -6608,14 +6619,17 @@
       <c r="F82" s="155"/>
       <c r="G82" s="155"/>
       <c r="H82" s="155"/>
-      <c r="I82" s="155"/>
-      <c r="J82" s="155"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="N82" s="470" t="s">
+      <c r="I82" s="502" t="s">
+        <v>264</v>
+      </c>
+      <c r="J82" s="502"/>
+      <c r="K82" s="502"/>
+      <c r="L82" s="502"/>
+      <c r="M82" s="503"/>
+      <c r="N82" s="469" t="s">
         <v>258</v>
       </c>
-      <c r="O82" s="472">
+      <c r="O82" s="471">
         <f>'BOQ Option-01'!J58</f>
         <v>14944500</v>
       </c>
@@ -6624,23 +6638,23 @@
       <c r="A83" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="474" t="s">
+      <c r="B83" s="476" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="480"/>
-      <c r="D83" s="480"/>
-      <c r="E83" s="480"/>
-      <c r="F83" s="480"/>
-      <c r="G83" s="480"/>
-      <c r="H83" s="480"/>
-      <c r="I83" s="480"/>
-      <c r="J83" s="480"/>
+      <c r="C83" s="482"/>
+      <c r="D83" s="482"/>
+      <c r="E83" s="482"/>
+      <c r="F83" s="482"/>
+      <c r="G83" s="482"/>
+      <c r="H83" s="482"/>
+      <c r="I83" s="482"/>
+      <c r="J83" s="482"/>
       <c r="K83" s="156"/>
       <c r="L83" s="156"/>
-      <c r="N83" s="470" t="s">
+      <c r="N83" s="469" t="s">
         <v>259</v>
       </c>
-      <c r="O83" s="472">
+      <c r="O83" s="471">
         <f>'BOQ Option-02'!J59</f>
         <v>12524700</v>
       </c>
@@ -6649,23 +6663,23 @@
       <c r="A84" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="474" t="s">
+      <c r="B84" s="476" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="480"/>
-      <c r="D84" s="480"/>
-      <c r="E84" s="480"/>
-      <c r="F84" s="480"/>
-      <c r="G84" s="480"/>
-      <c r="H84" s="480"/>
-      <c r="I84" s="480"/>
-      <c r="J84" s="480"/>
+      <c r="C84" s="482"/>
+      <c r="D84" s="482"/>
+      <c r="E84" s="482"/>
+      <c r="F84" s="482"/>
+      <c r="G84" s="482"/>
+      <c r="H84" s="482"/>
+      <c r="I84" s="482"/>
+      <c r="J84" s="482"/>
       <c r="K84" s="156"/>
       <c r="L84" s="156"/>
-      <c r="N84" s="470" t="s">
+      <c r="N84" s="469" t="s">
         <v>260</v>
       </c>
-      <c r="O84" s="472">
+      <c r="O84" s="471">
         <f>'Bill of Quantities'!J78</f>
         <v>4050500</v>
       </c>
@@ -6674,37 +6688,37 @@
       <c r="A85" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="481" t="s">
+      <c r="B85" s="483" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="481"/>
-      <c r="D85" s="481"/>
-      <c r="E85" s="481"/>
-      <c r="F85" s="481"/>
-      <c r="G85" s="481"/>
-      <c r="H85" s="481"/>
-      <c r="I85" s="481"/>
-      <c r="J85" s="481"/>
+      <c r="C85" s="483"/>
+      <c r="D85" s="483"/>
+      <c r="E85" s="483"/>
+      <c r="F85" s="483"/>
+      <c r="G85" s="483"/>
+      <c r="H85" s="483"/>
+      <c r="I85" s="483"/>
+      <c r="J85" s="483"/>
       <c r="K85" s="146"/>
       <c r="L85" s="146"/>
-      <c r="N85" s="470"/>
-      <c r="O85" s="471"/>
+      <c r="N85" s="469"/>
+      <c r="O85" s="470"/>
     </row>
     <row r="86" spans="1:15" s="70" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="474" t="s">
+      <c r="B86" s="476" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="474"/>
-      <c r="D86" s="474"/>
-      <c r="E86" s="474"/>
-      <c r="F86" s="474"/>
-      <c r="G86" s="474"/>
-      <c r="H86" s="474"/>
-      <c r="I86" s="474"/>
-      <c r="J86" s="474"/>
+      <c r="C86" s="476"/>
+      <c r="D86" s="476"/>
+      <c r="E86" s="476"/>
+      <c r="F86" s="476"/>
+      <c r="G86" s="476"/>
+      <c r="H86" s="476"/>
+      <c r="I86" s="476"/>
+      <c r="J86" s="476"/>
       <c r="K86" s="156"/>
       <c r="L86" s="156"/>
     </row>
@@ -6712,22 +6726,22 @@
       <c r="A87" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="474" t="s">
+      <c r="B87" s="476" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="474"/>
-      <c r="D87" s="474"/>
-      <c r="E87" s="474"/>
-      <c r="F87" s="474"/>
-      <c r="G87" s="474"/>
-      <c r="H87" s="474"/>
-      <c r="I87" s="474"/>
-      <c r="J87" s="474"/>
+      <c r="C87" s="476"/>
+      <c r="D87" s="476"/>
+      <c r="E87" s="476"/>
+      <c r="F87" s="476"/>
+      <c r="G87" s="476"/>
+      <c r="H87" s="476"/>
+      <c r="I87" s="476"/>
+      <c r="J87" s="476"/>
       <c r="K87" s="156"/>
       <c r="L87" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="N80:O80"/>
     <mergeCell ref="B87:J87"/>
     <mergeCell ref="A8:B8"/>
@@ -6737,6 +6751,7 @@
     <mergeCell ref="B86:J86"/>
     <mergeCell ref="B85:J85"/>
     <mergeCell ref="B83:J83"/>
+    <mergeCell ref="I82:M82"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.5" header="0.32" footer="0.25"/>
@@ -6760,1095 +6775,1095 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="333" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="333" customWidth="1"/>
-    <col min="3" max="3" width="44" style="334" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="333" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="333" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="333" customWidth="1"/>
-    <col min="7" max="10" width="12.625" style="333" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="236"/>
+    <col min="1" max="1" width="3" style="332" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="332" customWidth="1"/>
+    <col min="3" max="3" width="44" style="333" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="332" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="332" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="332" customWidth="1"/>
+    <col min="7" max="10" width="12.625" style="332" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="235"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="230" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:12" s="229" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-    </row>
-    <row r="2" spans="1:12" s="230" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="231" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+    </row>
+    <row r="2" spans="1:12" s="229" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-    </row>
-    <row r="3" spans="1:12" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+    </row>
+    <row r="3" spans="1:12" s="229" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="231"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="235" t="s">
+      <c r="J4" s="234" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="236" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="238"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="229"/>
+      <c r="E5" s="228"/>
       <c r="F5" s="30"/>
       <c r="G5" s="159"/>
       <c r="H5" s="159"/>
       <c r="I5" s="159"/>
-      <c r="J5" s="239" t="s">
+      <c r="J5" s="238" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="484"/>
-      <c r="G6" s="484"/>
-      <c r="H6" s="484"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="484"/>
+      <c r="A6" s="236"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="486"/>
+      <c r="G6" s="486"/>
+      <c r="H6" s="486"/>
+      <c r="I6" s="486"/>
+      <c r="J6" s="486"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="485" t="s">
+      <c r="A7" s="487" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="486"/>
-      <c r="C7" s="489" t="s">
+      <c r="B7" s="488"/>
+      <c r="C7" s="491" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="489" t="s">
+      <c r="D7" s="491" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="491" t="s">
+      <c r="E7" s="493" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="493" t="s">
+      <c r="F7" s="495" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="494"/>
-      <c r="H7" s="493" t="s">
+      <c r="G7" s="496"/>
+      <c r="H7" s="495" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="495"/>
-      <c r="J7" s="241" t="s">
+      <c r="I7" s="497"/>
+      <c r="J7" s="240" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="245" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="487"/>
-      <c r="B8" s="488"/>
-      <c r="C8" s="490"/>
-      <c r="D8" s="490"/>
-      <c r="E8" s="492"/>
-      <c r="F8" s="242" t="s">
+    <row r="8" spans="1:12" s="244" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="489"/>
+      <c r="B8" s="490"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="492"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="243" t="s">
+      <c r="G8" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="242" t="s">
+      <c r="H8" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="243" t="s">
+      <c r="I8" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="244" t="s">
+      <c r="J8" s="243" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="248" t="s">
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="251"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="252"/>
-      <c r="C10" s="253" t="s">
+      <c r="B10" s="251"/>
+      <c r="C10" s="252" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="254"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="255"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="254"/>
     </row>
     <row r="11" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="256">
+      <c r="A11" s="255">
         <v>1</v>
       </c>
-      <c r="B11" s="257"/>
-      <c r="C11" s="258" t="s">
+      <c r="B11" s="256"/>
+      <c r="C11" s="257" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="43"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="255"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="254"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="256"/>
-      <c r="B12" s="259" t="s">
+      <c r="A12" s="255"/>
+      <c r="B12" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="260" t="s">
+      <c r="C12" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="261" t="str">
+      <c r="D12" s="260" t="str">
         <f>IF(C12="","",IF(E12="","",IF(E12&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E12" s="262">
+      <c r="E12" s="261">
         <v>4</v>
       </c>
-      <c r="F12" s="263">
+      <c r="F12" s="262">
         <v>315000</v>
       </c>
-      <c r="G12" s="264">
+      <c r="G12" s="263">
         <f>F12*E12</f>
         <v>1260000</v>
       </c>
-      <c r="H12" s="263">
+      <c r="H12" s="262">
         <v>7500</v>
       </c>
-      <c r="I12" s="264">
+      <c r="I12" s="263">
         <f>H12*E12</f>
         <v>30000</v>
       </c>
-      <c r="J12" s="265">
+      <c r="J12" s="264">
         <f>I12+G12</f>
         <v>1290000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="256">
+      <c r="A13" s="255">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="266"/>
-      <c r="C13" s="267" t="s">
+      <c r="B13" s="265"/>
+      <c r="C13" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="268"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="271"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="271"/>
-      <c r="J13" s="272"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="271"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="256"/>
-      <c r="B14" s="259" t="s">
+      <c r="A14" s="255"/>
+      <c r="B14" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="260" t="s">
+      <c r="C14" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="261" t="str">
+      <c r="D14" s="260" t="str">
         <f>IF(C14="","",IF(E14="","",IF(E14&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E14" s="262">
+      <c r="E14" s="261">
         <v>1</v>
       </c>
-      <c r="F14" s="263">
+      <c r="F14" s="262">
         <v>550000</v>
       </c>
-      <c r="G14" s="264">
+      <c r="G14" s="263">
         <f>F14*E14</f>
         <v>550000</v>
       </c>
-      <c r="H14" s="263">
+      <c r="H14" s="262">
         <v>7500</v>
       </c>
-      <c r="I14" s="264">
+      <c r="I14" s="263">
         <f>H14*E14</f>
         <v>7500</v>
       </c>
-      <c r="J14" s="265">
+      <c r="J14" s="264">
         <f>I14+G14</f>
         <v>557500</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="256">
+      <c r="A15" s="255">
         <f>A13+1</f>
         <v>3</v>
       </c>
-      <c r="B15" s="257"/>
-      <c r="C15" s="258" t="s">
+      <c r="B15" s="256"/>
+      <c r="C15" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="273"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="275"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="277"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="274"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="274"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="276"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="256"/>
-      <c r="B16" s="278" t="s">
+      <c r="A16" s="255"/>
+      <c r="B16" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="279" t="s">
+      <c r="C16" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="261" t="s">
+      <c r="D16" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="262">
+      <c r="E16" s="261">
         <v>1100</v>
       </c>
-      <c r="F16" s="263">
+      <c r="F16" s="262">
         <v>550</v>
       </c>
-      <c r="G16" s="264">
+      <c r="G16" s="263">
         <f t="shared" ref="G16:G20" si="0">F16*E16</f>
         <v>605000</v>
       </c>
-      <c r="H16" s="263">
+      <c r="H16" s="262">
         <v>180</v>
       </c>
-      <c r="I16" s="264">
+      <c r="I16" s="263">
         <f t="shared" ref="I16:I20" si="1">H16*E16</f>
         <v>198000</v>
       </c>
-      <c r="J16" s="265">
+      <c r="J16" s="264">
         <f t="shared" ref="J16:J21" si="2">I16+G16</f>
         <v>803000</v>
       </c>
-      <c r="K16" s="230"/>
-      <c r="L16" s="230"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="229"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="256"/>
-      <c r="B17" s="278" t="s">
+      <c r="A17" s="255"/>
+      <c r="B17" s="277" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="279" t="s">
+      <c r="C17" s="278" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="261" t="s">
+      <c r="D17" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="262">
+      <c r="E17" s="261">
         <v>440</v>
       </c>
-      <c r="F17" s="263">
+      <c r="F17" s="262">
         <v>700</v>
       </c>
-      <c r="G17" s="264">
+      <c r="G17" s="263">
         <f t="shared" si="0"/>
         <v>308000</v>
       </c>
-      <c r="H17" s="263">
+      <c r="H17" s="262">
         <v>200</v>
       </c>
-      <c r="I17" s="264">
+      <c r="I17" s="263">
         <f t="shared" si="1"/>
         <v>88000</v>
       </c>
-      <c r="J17" s="265">
+      <c r="J17" s="264">
         <f t="shared" si="2"/>
         <v>396000</v>
       </c>
-      <c r="K17" s="230"/>
-      <c r="L17" s="230"/>
+      <c r="K17" s="229"/>
+      <c r="L17" s="229"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="256"/>
-      <c r="B18" s="278" t="s">
+      <c r="A18" s="255"/>
+      <c r="B18" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="280" t="s">
+      <c r="C18" s="279" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="281" t="s">
+      <c r="D18" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="282">
+      <c r="E18" s="281">
         <v>280</v>
       </c>
-      <c r="F18" s="263">
+      <c r="F18" s="262">
         <v>850</v>
       </c>
-      <c r="G18" s="264">
+      <c r="G18" s="263">
         <f t="shared" si="0"/>
         <v>238000</v>
       </c>
-      <c r="H18" s="263">
+      <c r="H18" s="262">
         <v>225</v>
       </c>
-      <c r="I18" s="264">
+      <c r="I18" s="263">
         <f t="shared" si="1"/>
         <v>63000</v>
       </c>
-      <c r="J18" s="265">
+      <c r="J18" s="264">
         <f t="shared" si="2"/>
         <v>301000</v>
       </c>
-      <c r="K18" s="230"/>
-      <c r="L18" s="230"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="229"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="256"/>
-      <c r="B19" s="278" t="s">
+      <c r="A19" s="255"/>
+      <c r="B19" s="277" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="279" t="s">
+      <c r="C19" s="278" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="261" t="s">
+      <c r="D19" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="262">
+      <c r="E19" s="261">
         <v>120</v>
       </c>
-      <c r="F19" s="263">
+      <c r="F19" s="262">
         <v>950</v>
       </c>
-      <c r="G19" s="264">
+      <c r="G19" s="263">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
-      <c r="H19" s="263">
+      <c r="H19" s="262">
         <v>250</v>
       </c>
-      <c r="I19" s="264">
+      <c r="I19" s="263">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="J19" s="265">
+      <c r="J19" s="264">
         <f t="shared" si="2"/>
         <v>144000</v>
       </c>
-      <c r="K19" s="230"/>
-      <c r="L19" s="230"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="229"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="256"/>
-      <c r="B20" s="278" t="s">
+      <c r="A20" s="255"/>
+      <c r="B20" s="277" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="279" t="s">
+      <c r="C20" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="261" t="s">
+      <c r="D20" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="262">
+      <c r="E20" s="261">
         <v>130</v>
       </c>
-      <c r="F20" s="263">
+      <c r="F20" s="262">
         <v>1600</v>
       </c>
-      <c r="G20" s="264">
+      <c r="G20" s="263">
         <f t="shared" si="0"/>
         <v>208000</v>
       </c>
-      <c r="H20" s="263">
+      <c r="H20" s="262">
         <v>300</v>
       </c>
-      <c r="I20" s="264">
+      <c r="I20" s="263">
         <f t="shared" si="1"/>
         <v>39000</v>
       </c>
-      <c r="J20" s="265">
+      <c r="J20" s="264">
         <f t="shared" si="2"/>
         <v>247000</v>
       </c>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="283"/>
-      <c r="B21" s="284" t="s">
+      <c r="A21" s="282"/>
+      <c r="B21" s="283" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="285" t="s">
+      <c r="C21" s="284" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="286" t="s">
+      <c r="D21" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="287">
+      <c r="E21" s="286">
         <v>190</v>
       </c>
-      <c r="F21" s="288">
+      <c r="F21" s="287">
         <v>1950</v>
       </c>
-      <c r="G21" s="289">
+      <c r="G21" s="288">
         <f>F21*E21</f>
         <v>370500</v>
       </c>
-      <c r="H21" s="288">
+      <c r="H21" s="287">
         <v>350</v>
       </c>
-      <c r="I21" s="289">
+      <c r="I21" s="288">
         <f>H21*E21</f>
         <v>66500</v>
       </c>
-      <c r="J21" s="290">
+      <c r="J21" s="289">
         <f t="shared" si="2"/>
         <v>437000</v>
       </c>
-      <c r="K21" s="230"/>
-      <c r="L21" s="230"/>
+      <c r="K21" s="229"/>
+      <c r="L21" s="229"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="256"/>
-      <c r="B22" s="278" t="s">
+      <c r="A22" s="255"/>
+      <c r="B22" s="277" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="279" t="s">
+      <c r="C22" s="278" t="s">
         <v>263</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="262">
+      <c r="E22" s="261">
         <v>140</v>
       </c>
-      <c r="F22" s="263">
+      <c r="F22" s="262">
         <v>2800</v>
       </c>
-      <c r="G22" s="264">
+      <c r="G22" s="263">
         <f>F22*E22</f>
         <v>392000</v>
       </c>
-      <c r="H22" s="263">
+      <c r="H22" s="262">
         <v>400</v>
       </c>
-      <c r="I22" s="264">
+      <c r="I22" s="263">
         <f>H22*E22</f>
         <v>56000</v>
       </c>
-      <c r="J22" s="265">
+      <c r="J22" s="264">
         <f>I22+G22</f>
         <v>448000</v>
       </c>
-      <c r="K22" s="230"/>
-      <c r="L22" s="230"/>
-    </row>
-    <row r="23" spans="1:12" s="295" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="256">
+      <c r="K22" s="229"/>
+      <c r="L22" s="229"/>
+    </row>
+    <row r="23" spans="1:12" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="255">
         <f>A15+1</f>
         <v>4</v>
       </c>
-      <c r="B23" s="291"/>
-      <c r="C23" s="292" t="s">
+      <c r="B23" s="290"/>
+      <c r="C23" s="291" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="273"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="293"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="294"/>
-    </row>
-    <row r="24" spans="1:12" s="297" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="272"/>
+      <c r="E23" s="273"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="292"/>
+      <c r="J23" s="293"/>
+    </row>
+    <row r="24" spans="1:12" s="296" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="296" t="s">
+      <c r="B24" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="279" t="s">
+      <c r="C24" s="278" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="261" t="str">
+      <c r="D24" s="260" t="str">
         <f>IF(C24="","",IF(E24="","",IF(E24&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E24" s="262">
+      <c r="E24" s="261">
         <v>198</v>
       </c>
-      <c r="F24" s="263">
+      <c r="F24" s="262">
         <v>2200</v>
       </c>
-      <c r="G24" s="264">
+      <c r="G24" s="263">
         <f t="shared" ref="G24:G25" si="3">F24*E24</f>
         <v>435600</v>
       </c>
-      <c r="H24" s="263">
+      <c r="H24" s="262">
         <v>600</v>
       </c>
-      <c r="I24" s="264">
+      <c r="I24" s="263">
         <f t="shared" ref="I24:I25" si="4">H24*E24</f>
         <v>118800</v>
       </c>
-      <c r="J24" s="265">
+      <c r="J24" s="264">
         <f t="shared" ref="J24:J25" si="5">I24+G24</f>
         <v>554400</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="297" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="296" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="296" t="s">
+      <c r="B25" s="295" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="280" t="s">
+      <c r="C25" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="281" t="str">
+      <c r="D25" s="280" t="str">
         <f>IF(C25="","",IF(E25="","",IF(E25&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E25" s="282">
+      <c r="E25" s="281">
         <v>1</v>
       </c>
-      <c r="F25" s="263">
+      <c r="F25" s="262">
         <v>7500</v>
       </c>
-      <c r="G25" s="264">
+      <c r="G25" s="263">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="H25" s="263">
+      <c r="H25" s="262">
         <v>1000</v>
       </c>
-      <c r="I25" s="264">
+      <c r="I25" s="263">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J25" s="265">
+      <c r="J25" s="264">
         <f t="shared" si="5"/>
         <v>8500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="295" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="294" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <f>A23+1</f>
         <v>5</v>
       </c>
-      <c r="B26" s="298"/>
-      <c r="C26" s="292" t="s">
+      <c r="B26" s="297"/>
+      <c r="C26" s="291" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="299"/>
+      <c r="D26" s="298"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="293"/>
-      <c r="H26" s="300"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="294"/>
+      <c r="F26" s="299"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="292"/>
+      <c r="J26" s="293"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="301"/>
-      <c r="B27" s="302" t="s">
+      <c r="A27" s="300"/>
+      <c r="B27" s="301" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="279" t="s">
+      <c r="C27" s="278" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="261" t="str">
+      <c r="D27" s="260" t="str">
         <f t="shared" ref="D27:D28" si="6">IF(C27="","",IF(E27="","",IF(E27&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E27" s="303">
+      <c r="E27" s="302">
         <v>8</v>
       </c>
-      <c r="F27" s="263">
+      <c r="F27" s="262">
         <v>25250</v>
       </c>
-      <c r="G27" s="264">
+      <c r="G27" s="263">
         <f t="shared" ref="G27:G29" si="7">F27*E27</f>
         <v>202000</v>
       </c>
-      <c r="H27" s="263">
+      <c r="H27" s="262">
         <v>750</v>
       </c>
-      <c r="I27" s="264">
+      <c r="I27" s="263">
         <f t="shared" ref="I27:I29" si="8">H27*E27</f>
         <v>6000</v>
       </c>
-      <c r="J27" s="265">
+      <c r="J27" s="264">
         <f t="shared" ref="J27:J29" si="9">I27+G27</f>
         <v>208000</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="301"/>
-      <c r="B28" s="302" t="s">
+      <c r="A28" s="300"/>
+      <c r="B28" s="301" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="280" t="s">
+      <c r="C28" s="279" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="281" t="str">
+      <c r="D28" s="280" t="str">
         <f t="shared" si="6"/>
         <v>Nos.</v>
       </c>
       <c r="E28" s="68">
         <v>8</v>
       </c>
-      <c r="F28" s="263">
+      <c r="F28" s="262">
         <v>14250</v>
       </c>
-      <c r="G28" s="264">
+      <c r="G28" s="263">
         <f t="shared" si="7"/>
         <v>114000</v>
       </c>
-      <c r="H28" s="263">
+      <c r="H28" s="262">
         <v>750</v>
       </c>
-      <c r="I28" s="264">
+      <c r="I28" s="263">
         <f t="shared" si="8"/>
         <v>6000</v>
       </c>
-      <c r="J28" s="265">
+      <c r="J28" s="264">
         <f t="shared" si="9"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="304" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="301"/>
-      <c r="B29" s="302" t="s">
+    <row r="29" spans="1:12" s="303" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="300"/>
+      <c r="B29" s="301" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="279" t="s">
+      <c r="C29" s="278" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="261" t="s">
+      <c r="D29" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="262">
+      <c r="E29" s="261">
         <v>3</v>
       </c>
-      <c r="F29" s="263">
+      <c r="F29" s="262">
         <v>29900</v>
       </c>
-      <c r="G29" s="264">
+      <c r="G29" s="263">
         <f t="shared" si="7"/>
         <v>89700</v>
       </c>
-      <c r="H29" s="263">
+      <c r="H29" s="262">
         <v>1000</v>
       </c>
-      <c r="I29" s="264">
+      <c r="I29" s="263">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="J29" s="265">
+      <c r="J29" s="264">
         <f t="shared" si="9"/>
         <v>92700</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="306" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="256">
+    <row r="30" spans="1:12" s="305" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="255">
         <f>A26+1</f>
         <v>6</v>
       </c>
-      <c r="B30" s="257"/>
-      <c r="C30" s="292" t="s">
+      <c r="B30" s="256"/>
+      <c r="C30" s="291" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="273"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="293"/>
-      <c r="H30" s="275"/>
-      <c r="I30" s="293"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="305"/>
-      <c r="L30" s="305"/>
-    </row>
-    <row r="31" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="256"/>
-      <c r="B31" s="296" t="s">
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="292"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="292"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="304"/>
+      <c r="L30" s="304"/>
+    </row>
+    <row r="31" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="255"/>
+      <c r="B31" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="307" t="s">
+      <c r="C31" s="306" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="273"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="293"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="293"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="305"/>
-      <c r="L31" s="305"/>
-    </row>
-    <row r="32" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="256"/>
-      <c r="B32" s="296" t="s">
+      <c r="D31" s="272"/>
+      <c r="E31" s="273"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="292"/>
+      <c r="J31" s="293"/>
+      <c r="K31" s="304"/>
+      <c r="L31" s="304"/>
+    </row>
+    <row r="32" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="255"/>
+      <c r="B32" s="295" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="307" t="s">
+      <c r="C32" s="306" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="273" t="str">
+      <c r="D32" s="272" t="str">
         <f>IF(C32="","",IF(E32="","",IF(E32&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E32" s="274">
+      <c r="E32" s="273">
         <v>1</v>
       </c>
-      <c r="F32" s="263">
+      <c r="F32" s="262">
         <v>635000</v>
       </c>
-      <c r="G32" s="264">
+      <c r="G32" s="263">
         <f t="shared" ref="G32" si="10">F32*E32</f>
         <v>635000</v>
       </c>
-      <c r="H32" s="263">
+      <c r="H32" s="262">
         <v>10000</v>
       </c>
-      <c r="I32" s="264">
+      <c r="I32" s="263">
         <f t="shared" ref="I32" si="11">H32*E32</f>
         <v>10000</v>
       </c>
-      <c r="J32" s="265">
+      <c r="J32" s="264">
         <f t="shared" ref="J32" si="12">I32+G32</f>
         <v>645000</v>
       </c>
-      <c r="K32" s="305"/>
-      <c r="L32" s="305"/>
-    </row>
-    <row r="33" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="256"/>
-      <c r="B33" s="296" t="s">
+      <c r="K32" s="304"/>
+      <c r="L32" s="304"/>
+    </row>
+    <row r="33" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="255"/>
+      <c r="B33" s="295" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="307" t="s">
+      <c r="C33" s="306" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="273"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="275"/>
-      <c r="G33" s="293"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="293"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="305"/>
-      <c r="L33" s="305"/>
-    </row>
-    <row r="34" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="256"/>
-      <c r="B34" s="296" t="s">
+      <c r="D33" s="272"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="274"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="274"/>
+      <c r="I33" s="292"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="304"/>
+      <c r="L33" s="304"/>
+    </row>
+    <row r="34" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="255"/>
+      <c r="B34" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="307" t="s">
+      <c r="C34" s="306" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="273"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="293"/>
-      <c r="H34" s="275"/>
-      <c r="I34" s="293"/>
-      <c r="J34" s="294"/>
-      <c r="K34" s="305"/>
-      <c r="L34" s="305"/>
-    </row>
-    <row r="35" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="256"/>
-      <c r="B35" s="296" t="s">
+      <c r="D34" s="272"/>
+      <c r="E34" s="273"/>
+      <c r="F34" s="274"/>
+      <c r="G34" s="292"/>
+      <c r="H34" s="274"/>
+      <c r="I34" s="292"/>
+      <c r="J34" s="293"/>
+      <c r="K34" s="304"/>
+      <c r="L34" s="304"/>
+    </row>
+    <row r="35" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="255"/>
+      <c r="B35" s="295" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="279" t="s">
+      <c r="C35" s="278" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="263"/>
-      <c r="I35" s="264"/>
-      <c r="J35" s="265"/>
-      <c r="K35" s="305"/>
-      <c r="L35" s="305"/>
+      <c r="D35" s="260"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="263"/>
+      <c r="H35" s="262"/>
+      <c r="I35" s="263"/>
+      <c r="J35" s="264"/>
+      <c r="K35" s="304"/>
+      <c r="L35" s="304"/>
     </row>
     <row r="36" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="256">
+      <c r="A36" s="255">
         <f>A30+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="257"/>
-      <c r="C36" s="307" t="s">
+      <c r="B36" s="256"/>
+      <c r="C36" s="306" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="273"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="293"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="293"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="230"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="273"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="292"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="292"/>
+      <c r="J36" s="293"/>
+      <c r="K36" s="229"/>
+      <c r="L36" s="229"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="256"/>
-      <c r="B37" s="278" t="s">
+      <c r="A37" s="255"/>
+      <c r="B37" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="260" t="s">
+      <c r="C37" s="259" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="261" t="str">
+      <c r="D37" s="260" t="str">
         <f t="shared" ref="D37:D42" si="13">IF(C37="","",IF(E37="","",IF(E37&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E37" s="262">
+      <c r="E37" s="261">
         <v>1</v>
       </c>
-      <c r="F37" s="263">
+      <c r="F37" s="262">
         <v>492000</v>
       </c>
-      <c r="G37" s="264">
+      <c r="G37" s="263">
         <f t="shared" ref="G37:G42" si="14">F37*E37</f>
         <v>492000</v>
       </c>
-      <c r="H37" s="263">
+      <c r="H37" s="262">
         <v>10000</v>
       </c>
-      <c r="I37" s="264">
+      <c r="I37" s="263">
         <f t="shared" ref="I37:I42" si="15">H37*E37</f>
         <v>10000</v>
       </c>
-      <c r="J37" s="265">
+      <c r="J37" s="264">
         <f t="shared" ref="J37:J42" si="16">I37+G37</f>
         <v>502000</v>
       </c>
-      <c r="K37" s="230"/>
-      <c r="L37" s="230"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="229"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <f>A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="291"/>
-      <c r="C38" s="279" t="s">
+      <c r="B38" s="290"/>
+      <c r="C38" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="261" t="str">
+      <c r="D38" s="260" t="str">
         <f t="shared" si="13"/>
         <v>No.</v>
       </c>
-      <c r="E38" s="262">
+      <c r="E38" s="261">
         <v>1</v>
       </c>
-      <c r="F38" s="263">
+      <c r="F38" s="262">
         <v>464400</v>
       </c>
-      <c r="G38" s="264">
+      <c r="G38" s="263">
         <f t="shared" si="14"/>
         <v>464400</v>
       </c>
-      <c r="H38" s="263">
+      <c r="H38" s="262">
         <v>10000</v>
       </c>
-      <c r="I38" s="264">
+      <c r="I38" s="263">
         <f t="shared" si="15"/>
         <v>10000</v>
       </c>
-      <c r="J38" s="265">
+      <c r="J38" s="264">
         <f t="shared" si="16"/>
         <v>474400</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <f>A38+1</f>
         <v>9</v>
       </c>
-      <c r="B39" s="291"/>
-      <c r="C39" s="280" t="s">
+      <c r="B39" s="290"/>
+      <c r="C39" s="279" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="281" t="str">
+      <c r="D39" s="280" t="str">
         <f t="shared" si="13"/>
         <v>No.</v>
       </c>
-      <c r="E39" s="282">
+      <c r="E39" s="281">
         <v>1</v>
       </c>
-      <c r="F39" s="263">
+      <c r="F39" s="262">
         <v>12000</v>
       </c>
-      <c r="G39" s="264">
+      <c r="G39" s="263">
         <f t="shared" si="14"/>
         <v>12000</v>
       </c>
-      <c r="H39" s="263">
+      <c r="H39" s="262">
         <v>1000</v>
       </c>
-      <c r="I39" s="264">
+      <c r="I39" s="263">
         <f t="shared" si="15"/>
         <v>1000</v>
       </c>
-      <c r="J39" s="265">
+      <c r="J39" s="264">
         <f t="shared" si="16"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <f>A39+1</f>
         <v>10</v>
       </c>
-      <c r="B40" s="291"/>
-      <c r="C40" s="279" t="s">
+      <c r="B40" s="290"/>
+      <c r="C40" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="261" t="str">
+      <c r="D40" s="260" t="str">
         <f t="shared" si="13"/>
         <v>No.</v>
       </c>
-      <c r="E40" s="262">
+      <c r="E40" s="261">
         <v>1</v>
       </c>
-      <c r="F40" s="263">
+      <c r="F40" s="262">
         <v>45000</v>
       </c>
-      <c r="G40" s="264">
+      <c r="G40" s="263">
         <f t="shared" si="14"/>
         <v>45000</v>
       </c>
-      <c r="H40" s="263">
+      <c r="H40" s="262">
         <v>5000</v>
       </c>
-      <c r="I40" s="264">
+      <c r="I40" s="263">
         <f t="shared" si="15"/>
         <v>5000</v>
       </c>
-      <c r="J40" s="265">
+      <c r="J40" s="264">
         <f t="shared" si="16"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <f>A40+1</f>
         <v>11</v>
       </c>
-      <c r="B41" s="291"/>
-      <c r="C41" s="279" t="s">
+      <c r="B41" s="290"/>
+      <c r="C41" s="278" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="261" t="str">
+      <c r="D41" s="260" t="str">
         <f t="shared" si="13"/>
         <v>No.</v>
       </c>
-      <c r="E41" s="262">
+      <c r="E41" s="261">
         <v>1</v>
       </c>
-      <c r="F41" s="263">
+      <c r="F41" s="262">
         <v>115000</v>
       </c>
-      <c r="G41" s="264">
+      <c r="G41" s="263">
         <f t="shared" si="14"/>
         <v>115000</v>
       </c>
-      <c r="H41" s="263">
+      <c r="H41" s="262">
         <v>15000</v>
       </c>
-      <c r="I41" s="264">
+      <c r="I41" s="263">
         <f t="shared" si="15"/>
         <v>15000</v>
       </c>
-      <c r="J41" s="265">
+      <c r="J41" s="264">
         <f t="shared" si="16"/>
         <v>130000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <f>A41+1</f>
         <v>12</v>
       </c>
-      <c r="B42" s="291"/>
-      <c r="C42" s="279" t="s">
+      <c r="B42" s="290"/>
+      <c r="C42" s="278" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="261" t="str">
+      <c r="D42" s="260" t="str">
         <f t="shared" si="13"/>
         <v>No.</v>
       </c>
-      <c r="E42" s="262">
+      <c r="E42" s="261">
         <v>1</v>
       </c>
-      <c r="F42" s="263">
+      <c r="F42" s="262">
         <v>400000</v>
       </c>
-      <c r="G42" s="264">
+      <c r="G42" s="263">
         <f t="shared" si="14"/>
         <v>400000</v>
       </c>
-      <c r="H42" s="263">
+      <c r="H42" s="262">
         <v>10000</v>
       </c>
-      <c r="I42" s="264">
+      <c r="I42" s="263">
         <f t="shared" si="15"/>
         <v>10000</v>
       </c>
-      <c r="J42" s="265">
+      <c r="J42" s="264">
         <f t="shared" si="16"/>
         <v>410000</v>
       </c>
@@ -7858,48 +7873,48 @@
         <f>A42+1</f>
         <v>13</v>
       </c>
-      <c r="B43" s="291"/>
-      <c r="C43" s="307" t="s">
+      <c r="B43" s="290"/>
+      <c r="C43" s="306" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="268"/>
-      <c r="E43" s="269"/>
-      <c r="F43" s="275"/>
-      <c r="G43" s="308"/>
-      <c r="H43" s="275"/>
-      <c r="I43" s="308"/>
-      <c r="J43" s="309"/>
-    </row>
-    <row r="44" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="283"/>
-      <c r="B44" s="310" t="s">
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="307"/>
+      <c r="H43" s="274"/>
+      <c r="I43" s="307"/>
+      <c r="J43" s="308"/>
+    </row>
+    <row r="44" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="282"/>
+      <c r="B44" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="311" t="s">
+      <c r="C44" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="312" t="str">
+      <c r="D44" s="311" t="str">
         <f>IF(C44="","",IF(E44="","",IF(E44&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E44" s="313">
+      <c r="E44" s="312">
         <v>4</v>
       </c>
-      <c r="F44" s="288">
+      <c r="F44" s="287">
         <v>175000</v>
       </c>
-      <c r="G44" s="289">
+      <c r="G44" s="288">
         <f>F44*E44</f>
         <v>700000</v>
       </c>
-      <c r="H44" s="288">
+      <c r="H44" s="287">
         <v>7000</v>
       </c>
-      <c r="I44" s="289">
+      <c r="I44" s="288">
         <f>H44*E44</f>
         <v>28000</v>
       </c>
-      <c r="J44" s="290">
+      <c r="J44" s="289">
         <f t="shared" ref="J44" si="17">I44+G44</f>
         <v>728000</v>
       </c>
@@ -7909,48 +7924,48 @@
         <f>A43+1</f>
         <v>14</v>
       </c>
-      <c r="B45" s="291"/>
-      <c r="C45" s="314" t="s">
+      <c r="B45" s="290"/>
+      <c r="C45" s="313" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="273"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="275"/>
-      <c r="G45" s="308"/>
-      <c r="H45" s="275"/>
-      <c r="I45" s="308"/>
-      <c r="J45" s="309"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="307"/>
+      <c r="H45" s="274"/>
+      <c r="I45" s="307"/>
+      <c r="J45" s="308"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="256"/>
-      <c r="B46" s="259" t="s">
+      <c r="A46" s="255"/>
+      <c r="B46" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="315" t="s">
+      <c r="C46" s="314" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="261" t="str">
+      <c r="D46" s="260" t="str">
         <f>IF(C46="","",IF(E46="","",IF(E46&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E46" s="262">
+      <c r="E46" s="261">
         <v>2</v>
       </c>
-      <c r="F46" s="263">
+      <c r="F46" s="262">
         <v>41500</v>
       </c>
-      <c r="G46" s="264">
+      <c r="G46" s="263">
         <f>F46*E46</f>
         <v>83000</v>
       </c>
-      <c r="H46" s="263">
+      <c r="H46" s="262">
         <v>7000</v>
       </c>
-      <c r="I46" s="264">
+      <c r="I46" s="263">
         <f>H46*E46</f>
         <v>14000</v>
       </c>
-      <c r="J46" s="265">
+      <c r="J46" s="264">
         <f>I46+G46</f>
         <v>97000</v>
       </c>
@@ -7960,375 +7975,375 @@
         <f>A45+1</f>
         <v>15</v>
       </c>
-      <c r="B47" s="266"/>
-      <c r="C47" s="307" t="s">
+      <c r="B47" s="265"/>
+      <c r="C47" s="306" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="273"/>
-      <c r="E47" s="274"/>
-      <c r="F47" s="275"/>
-      <c r="G47" s="308"/>
-      <c r="H47" s="275"/>
-      <c r="I47" s="308"/>
-      <c r="J47" s="309"/>
-    </row>
-    <row r="48" spans="1:12" s="295" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="272"/>
+      <c r="E47" s="273"/>
+      <c r="F47" s="274"/>
+      <c r="G47" s="307"/>
+      <c r="H47" s="274"/>
+      <c r="I47" s="307"/>
+      <c r="J47" s="308"/>
+    </row>
+    <row r="48" spans="1:12" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="316" t="s">
+      <c r="B48" s="315" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="315" t="s">
+      <c r="C48" s="314" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="261" t="str">
+      <c r="D48" s="260" t="str">
         <f>IF(C48="","",IF(E48="","",IF(E48&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E48" s="262">
+      <c r="E48" s="261">
         <v>2</v>
       </c>
-      <c r="F48" s="263">
+      <c r="F48" s="262">
         <v>112000</v>
       </c>
-      <c r="G48" s="264">
+      <c r="G48" s="263">
         <f t="shared" ref="G48:G52" si="18">F48*E48</f>
         <v>224000</v>
       </c>
-      <c r="H48" s="263">
+      <c r="H48" s="262">
         <v>7000</v>
       </c>
-      <c r="I48" s="264">
+      <c r="I48" s="263">
         <f t="shared" ref="I48:I52" si="19">H48*E48</f>
         <v>14000</v>
       </c>
-      <c r="J48" s="265">
+      <c r="J48" s="264">
         <f t="shared" ref="J48:J53" si="20">I48+G48</f>
         <v>238000</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="318" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="256">
+    <row r="49" spans="1:25" s="317" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="255">
         <f>A47+1</f>
         <v>16</v>
       </c>
-      <c r="B49" s="317"/>
-      <c r="C49" s="258" t="s">
+      <c r="B49" s="316"/>
+      <c r="C49" s="257" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="273" t="s">
+      <c r="D49" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="274">
+      <c r="E49" s="273">
         <v>1</v>
       </c>
-      <c r="F49" s="263">
+      <c r="F49" s="262">
         <v>4450000</v>
       </c>
-      <c r="G49" s="264">
+      <c r="G49" s="263">
         <f t="shared" si="18"/>
         <v>4450000</v>
       </c>
-      <c r="H49" s="263">
+      <c r="H49" s="262">
         <v>150000</v>
       </c>
-      <c r="I49" s="264">
+      <c r="I49" s="263">
         <f t="shared" si="19"/>
         <v>150000</v>
       </c>
-      <c r="J49" s="265">
+      <c r="J49" s="264">
         <f t="shared" si="20"/>
         <v>4600000</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="319">
+      <c r="A50" s="318">
         <f>A49+1</f>
         <v>17</v>
       </c>
-      <c r="B50" s="257"/>
-      <c r="C50" s="280" t="s">
+      <c r="B50" s="256"/>
+      <c r="C50" s="279" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="281" t="s">
+      <c r="D50" s="280" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="68">
         <v>1</v>
       </c>
-      <c r="F50" s="263">
+      <c r="F50" s="262">
         <v>465000</v>
       </c>
-      <c r="G50" s="264">
+      <c r="G50" s="263">
         <f t="shared" si="18"/>
         <v>465000</v>
       </c>
-      <c r="H50" s="263">
+      <c r="H50" s="262">
         <v>35000</v>
       </c>
-      <c r="I50" s="264">
+      <c r="I50" s="263">
         <f t="shared" si="19"/>
         <v>35000</v>
       </c>
-      <c r="J50" s="265">
+      <c r="J50" s="264">
         <f t="shared" si="20"/>
         <v>500000</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="256">
+      <c r="A51" s="255">
         <f t="shared" ref="A51:A57" si="21">A50+1</f>
         <v>18</v>
       </c>
-      <c r="B51" s="257"/>
-      <c r="C51" s="320" t="s">
+      <c r="B51" s="256"/>
+      <c r="C51" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="281" t="s">
+      <c r="D51" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="282">
+      <c r="E51" s="281">
         <v>1</v>
       </c>
-      <c r="F51" s="263">
+      <c r="F51" s="262">
         <v>180000</v>
       </c>
-      <c r="G51" s="264">
+      <c r="G51" s="263">
         <f t="shared" si="18"/>
         <v>180000</v>
       </c>
-      <c r="H51" s="263">
+      <c r="H51" s="262">
         <v>20000</v>
       </c>
-      <c r="I51" s="264">
+      <c r="I51" s="263">
         <f t="shared" si="19"/>
         <v>20000</v>
       </c>
-      <c r="J51" s="265">
+      <c r="J51" s="264">
         <f t="shared" si="20"/>
         <v>200000</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="111.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="256">
+      <c r="A52" s="255">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="B52" s="257"/>
-      <c r="C52" s="279" t="s">
+      <c r="B52" s="256"/>
+      <c r="C52" s="278" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="261" t="s">
+      <c r="D52" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="262">
+      <c r="E52" s="261">
         <v>1</v>
       </c>
-      <c r="F52" s="263">
+      <c r="F52" s="262">
         <v>175000</v>
       </c>
-      <c r="G52" s="264">
+      <c r="G52" s="263">
         <f t="shared" si="18"/>
         <v>175000</v>
       </c>
-      <c r="H52" s="263">
+      <c r="H52" s="262">
         <v>35000</v>
       </c>
-      <c r="I52" s="264">
+      <c r="I52" s="263">
         <f t="shared" si="19"/>
         <v>35000</v>
       </c>
-      <c r="J52" s="265">
+      <c r="J52" s="264">
         <f t="shared" si="20"/>
         <v>210000</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="283">
+      <c r="A53" s="282">
         <f>A52+1</f>
         <v>20</v>
       </c>
-      <c r="B53" s="321"/>
-      <c r="C53" s="322" t="s">
+      <c r="B53" s="320"/>
+      <c r="C53" s="321" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="312" t="s">
+      <c r="D53" s="311" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="313">
+      <c r="E53" s="312">
         <v>1</v>
       </c>
-      <c r="F53" s="288">
+      <c r="F53" s="287">
         <v>60000</v>
       </c>
-      <c r="G53" s="289">
+      <c r="G53" s="288">
         <f>F53*E53</f>
         <v>60000</v>
       </c>
-      <c r="H53" s="288">
+      <c r="H53" s="287">
         <v>20000</v>
       </c>
-      <c r="I53" s="289">
+      <c r="I53" s="288">
         <f>H53*E53</f>
         <v>20000</v>
       </c>
-      <c r="J53" s="290">
+      <c r="J53" s="289">
         <f t="shared" si="20"/>
         <v>80000</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="256">
+      <c r="A54" s="255">
         <f>A53+1</f>
         <v>21</v>
       </c>
-      <c r="B54" s="257"/>
-      <c r="C54" s="323" t="s">
+      <c r="B54" s="256"/>
+      <c r="C54" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="261" t="s">
+      <c r="D54" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="262">
+      <c r="E54" s="261">
         <v>1</v>
       </c>
-      <c r="F54" s="263">
+      <c r="F54" s="262">
         <v>15000</v>
       </c>
-      <c r="G54" s="264">
+      <c r="G54" s="263">
         <f>F54*E54</f>
         <v>15000</v>
       </c>
-      <c r="H54" s="263">
+      <c r="H54" s="262">
         <v>15000</v>
       </c>
-      <c r="I54" s="264">
+      <c r="I54" s="263">
         <f>H54*E54</f>
         <v>15000</v>
       </c>
-      <c r="J54" s="265">
+      <c r="J54" s="264">
         <f>I54+G54</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="295" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="256">
+    <row r="55" spans="1:25" s="294" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="255">
         <f>A54+1</f>
         <v>22</v>
       </c>
-      <c r="B55" s="291"/>
-      <c r="C55" s="279" t="s">
+      <c r="B55" s="290"/>
+      <c r="C55" s="278" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="261" t="s">
+      <c r="D55" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="262">
+      <c r="E55" s="261">
         <v>1</v>
       </c>
-      <c r="F55" s="263">
+      <c r="F55" s="262">
         <v>150000</v>
       </c>
-      <c r="G55" s="264">
+      <c r="G55" s="263">
         <f t="shared" ref="G55:G57" si="22">F55*E55</f>
         <v>150000</v>
       </c>
-      <c r="H55" s="263">
+      <c r="H55" s="262">
         <v>50000</v>
       </c>
-      <c r="I55" s="264">
+      <c r="I55" s="263">
         <f t="shared" ref="I55:I57" si="23">H55*E55</f>
         <v>50000</v>
       </c>
-      <c r="J55" s="265">
+      <c r="J55" s="264">
         <f t="shared" ref="J55:J57" si="24">I55+G55</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <f t="shared" si="21"/>
         <v>23</v>
       </c>
-      <c r="B56" s="291"/>
-      <c r="C56" s="279" t="s">
+      <c r="B56" s="290"/>
+      <c r="C56" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="261" t="s">
+      <c r="D56" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="262">
+      <c r="E56" s="261">
         <v>1</v>
       </c>
-      <c r="F56" s="263">
+      <c r="F56" s="262">
         <v>40000</v>
       </c>
-      <c r="G56" s="264">
+      <c r="G56" s="263">
         <f t="shared" si="22"/>
         <v>40000</v>
       </c>
-      <c r="H56" s="263">
+      <c r="H56" s="262">
         <v>40000</v>
       </c>
-      <c r="I56" s="264">
+      <c r="I56" s="263">
         <f t="shared" si="23"/>
         <v>40000</v>
       </c>
-      <c r="J56" s="265">
+      <c r="J56" s="264">
         <f t="shared" si="24"/>
         <v>80000</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="256">
+      <c r="A57" s="255">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
-      <c r="B57" s="257"/>
-      <c r="C57" s="324" t="s">
+      <c r="B57" s="256"/>
+      <c r="C57" s="323" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="261" t="s">
+      <c r="D57" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="262">
+      <c r="E57" s="261">
         <v>1</v>
       </c>
-      <c r="F57" s="263"/>
-      <c r="G57" s="264">
+      <c r="F57" s="262"/>
+      <c r="G57" s="263">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H57" s="263">
+      <c r="H57" s="262">
         <v>150000</v>
       </c>
-      <c r="I57" s="264">
+      <c r="I57" s="263">
         <f t="shared" si="23"/>
         <v>150000</v>
       </c>
-      <c r="J57" s="265">
+      <c r="J57" s="264">
         <f t="shared" si="24"/>
         <v>150000</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="325"/>
-      <c r="B58" s="326"/>
-      <c r="C58" s="327" t="s">
+      <c r="A58" s="324"/>
+      <c r="B58" s="325"/>
+      <c r="C58" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="328"/>
-      <c r="E58" s="328"/>
-      <c r="F58" s="329"/>
-      <c r="G58" s="330">
+      <c r="D58" s="327"/>
+      <c r="E58" s="327"/>
+      <c r="F58" s="328"/>
+      <c r="G58" s="329">
         <f>SUM(G9:G57)</f>
         <v>13599700</v>
       </c>
-      <c r="H58" s="329"/>
-      <c r="I58" s="330">
+      <c r="H58" s="328"/>
+      <c r="I58" s="329">
         <f>SUM(I9:I57)</f>
         <v>1344800</v>
       </c>
-      <c r="J58" s="330">
+      <c r="J58" s="329">
         <f>SUM(J9:J57)</f>
         <v>14944500</v>
       </c>
@@ -8346,10 +8361,10 @@
       <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="482" t="s">
+      <c r="A60" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="482"/>
+      <c r="B60" s="484"/>
       <c r="C60" s="29"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
@@ -8360,97 +8375,97 @@
       <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="331" t="s">
+      <c r="A61" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="483" t="s">
+      <c r="B61" s="485" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="483"/>
-      <c r="D61" s="483"/>
-      <c r="E61" s="483"/>
-      <c r="F61" s="483"/>
-      <c r="G61" s="483"/>
-      <c r="H61" s="483"/>
-      <c r="I61" s="483"/>
-      <c r="J61" s="483"/>
-      <c r="K61" s="332"/>
-      <c r="L61" s="332"/>
-      <c r="M61" s="332"/>
-      <c r="N61" s="332"/>
-      <c r="O61" s="332"/>
-      <c r="P61" s="332"/>
-      <c r="Q61" s="332"/>
-      <c r="R61" s="332"/>
-      <c r="S61" s="332"/>
-      <c r="T61" s="332"/>
-      <c r="U61" s="332"/>
-      <c r="V61" s="332"/>
-      <c r="W61" s="332"/>
-      <c r="X61" s="332"/>
-      <c r="Y61" s="332"/>
+      <c r="C61" s="485"/>
+      <c r="D61" s="485"/>
+      <c r="E61" s="485"/>
+      <c r="F61" s="485"/>
+      <c r="G61" s="485"/>
+      <c r="H61" s="485"/>
+      <c r="I61" s="485"/>
+      <c r="J61" s="485"/>
+      <c r="K61" s="331"/>
+      <c r="L61" s="331"/>
+      <c r="M61" s="331"/>
+      <c r="N61" s="331"/>
+      <c r="O61" s="331"/>
+      <c r="P61" s="331"/>
+      <c r="Q61" s="331"/>
+      <c r="R61" s="331"/>
+      <c r="S61" s="331"/>
+      <c r="T61" s="331"/>
+      <c r="U61" s="331"/>
+      <c r="V61" s="331"/>
+      <c r="W61" s="331"/>
+      <c r="X61" s="331"/>
+      <c r="Y61" s="331"/>
     </row>
     <row r="62" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="331" t="s">
+      <c r="A62" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="483" t="s">
+      <c r="B62" s="485" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="483"/>
-      <c r="D62" s="483"/>
-      <c r="E62" s="483"/>
-      <c r="F62" s="483"/>
-      <c r="G62" s="483"/>
-      <c r="H62" s="483"/>
-      <c r="I62" s="483"/>
-      <c r="J62" s="483"/>
-      <c r="K62" s="332"/>
-      <c r="L62" s="332"/>
-      <c r="M62" s="332"/>
-      <c r="N62" s="332"/>
-      <c r="O62" s="332"/>
-      <c r="P62" s="332"/>
-      <c r="Q62" s="332"/>
-      <c r="R62" s="332"/>
-      <c r="S62" s="332"/>
-      <c r="T62" s="332"/>
-      <c r="U62" s="332"/>
-      <c r="V62" s="332"/>
-      <c r="W62" s="332"/>
-      <c r="X62" s="332"/>
-      <c r="Y62" s="332"/>
+      <c r="C62" s="485"/>
+      <c r="D62" s="485"/>
+      <c r="E62" s="485"/>
+      <c r="F62" s="485"/>
+      <c r="G62" s="485"/>
+      <c r="H62" s="485"/>
+      <c r="I62" s="485"/>
+      <c r="J62" s="485"/>
+      <c r="K62" s="331"/>
+      <c r="L62" s="331"/>
+      <c r="M62" s="331"/>
+      <c r="N62" s="331"/>
+      <c r="O62" s="331"/>
+      <c r="P62" s="331"/>
+      <c r="Q62" s="331"/>
+      <c r="R62" s="331"/>
+      <c r="S62" s="331"/>
+      <c r="T62" s="331"/>
+      <c r="U62" s="331"/>
+      <c r="V62" s="331"/>
+      <c r="W62" s="331"/>
+      <c r="X62" s="331"/>
+      <c r="Y62" s="331"/>
     </row>
     <row r="63" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="331" t="s">
+      <c r="A63" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="B63" s="483" t="s">
+      <c r="B63" s="485" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="483"/>
-      <c r="D63" s="483"/>
-      <c r="E63" s="483"/>
-      <c r="F63" s="483"/>
-      <c r="G63" s="483"/>
-      <c r="H63" s="483"/>
-      <c r="I63" s="483"/>
-      <c r="J63" s="483"/>
-      <c r="K63" s="332"/>
-      <c r="L63" s="332"/>
-      <c r="M63" s="332"/>
-      <c r="N63" s="332"/>
-      <c r="O63" s="332"/>
-      <c r="P63" s="332"/>
-      <c r="Q63" s="332"/>
-      <c r="R63" s="332"/>
-      <c r="S63" s="332"/>
-      <c r="T63" s="332"/>
-      <c r="U63" s="332"/>
-      <c r="V63" s="332"/>
-      <c r="W63" s="332"/>
-      <c r="X63" s="332"/>
-      <c r="Y63" s="332"/>
+      <c r="C63" s="485"/>
+      <c r="D63" s="485"/>
+      <c r="E63" s="485"/>
+      <c r="F63" s="485"/>
+      <c r="G63" s="485"/>
+      <c r="H63" s="485"/>
+      <c r="I63" s="485"/>
+      <c r="J63" s="485"/>
+      <c r="K63" s="331"/>
+      <c r="L63" s="331"/>
+      <c r="M63" s="331"/>
+      <c r="N63" s="331"/>
+      <c r="O63" s="331"/>
+      <c r="P63" s="331"/>
+      <c r="Q63" s="331"/>
+      <c r="R63" s="331"/>
+      <c r="S63" s="331"/>
+      <c r="T63" s="331"/>
+      <c r="U63" s="331"/>
+      <c r="V63" s="331"/>
+      <c r="W63" s="331"/>
+      <c r="X63" s="331"/>
+      <c r="Y63" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8479,1119 +8494,1119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB999B76-4727-447F-BCCF-1458697F3F43}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="333" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="333" customWidth="1"/>
-    <col min="3" max="3" width="44" style="334" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="333" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="333" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="333" customWidth="1"/>
-    <col min="7" max="10" width="12.625" style="333" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="236"/>
+    <col min="1" max="1" width="3" style="332" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="332" customWidth="1"/>
+    <col min="3" max="3" width="44" style="333" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="332" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="332" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="332" customWidth="1"/>
+    <col min="7" max="10" width="12.625" style="332" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="235"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="230" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:12" s="229" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-    </row>
-    <row r="2" spans="1:12" s="230" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="231" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+    </row>
+    <row r="2" spans="1:12" s="229" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-    </row>
-    <row r="3" spans="1:12" s="230" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+    </row>
+    <row r="3" spans="1:12" s="229" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="231"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="235" t="s">
+      <c r="J4" s="234" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="236" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="238"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="229"/>
+      <c r="E5" s="228"/>
       <c r="F5" s="30"/>
       <c r="G5" s="159"/>
       <c r="H5" s="159"/>
       <c r="I5" s="159"/>
-      <c r="J5" s="239" t="s">
+      <c r="J5" s="238" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="484"/>
-      <c r="G6" s="484"/>
-      <c r="H6" s="484"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="484"/>
+      <c r="A6" s="236"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="486"/>
+      <c r="G6" s="486"/>
+      <c r="H6" s="486"/>
+      <c r="I6" s="486"/>
+      <c r="J6" s="486"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="485" t="s">
+      <c r="A7" s="487" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="486"/>
-      <c r="C7" s="489" t="s">
+      <c r="B7" s="488"/>
+      <c r="C7" s="491" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="489" t="s">
+      <c r="D7" s="491" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="491" t="s">
+      <c r="E7" s="493" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="493" t="s">
+      <c r="F7" s="495" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="494"/>
-      <c r="H7" s="493" t="s">
+      <c r="G7" s="496"/>
+      <c r="H7" s="495" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="495"/>
-      <c r="J7" s="241" t="s">
+      <c r="I7" s="497"/>
+      <c r="J7" s="240" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="245" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="487"/>
-      <c r="B8" s="488"/>
-      <c r="C8" s="490"/>
-      <c r="D8" s="490"/>
-      <c r="E8" s="492"/>
-      <c r="F8" s="242" t="s">
+    <row r="8" spans="1:12" s="244" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="489"/>
+      <c r="B8" s="490"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="492"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="243" t="s">
+      <c r="G8" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="242" t="s">
+      <c r="H8" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="243" t="s">
+      <c r="I8" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="244" t="s">
+      <c r="J8" s="243" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="248" t="s">
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="251"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="252"/>
-      <c r="C10" s="253" t="s">
+      <c r="B10" s="251"/>
+      <c r="C10" s="252" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="254"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="255"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="254"/>
     </row>
     <row r="11" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="256">
+      <c r="A11" s="255">
         <v>1</v>
       </c>
-      <c r="B11" s="257"/>
-      <c r="C11" s="258" t="s">
+      <c r="B11" s="256"/>
+      <c r="C11" s="257" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="43"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="255"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="254"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="256"/>
-      <c r="B12" s="259" t="s">
+      <c r="A12" s="255"/>
+      <c r="B12" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="260" t="s">
+      <c r="C12" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="261" t="str">
+      <c r="D12" s="260" t="str">
         <f>IF(C12="","",IF(E12="","",IF(E12&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E12" s="262">
+      <c r="E12" s="261">
         <v>4</v>
       </c>
-      <c r="F12" s="263">
+      <c r="F12" s="262">
         <v>375000</v>
       </c>
-      <c r="G12" s="264">
+      <c r="G12" s="263">
         <f>F12*E12</f>
         <v>1500000</v>
       </c>
-      <c r="H12" s="263">
+      <c r="H12" s="262">
         <v>7500</v>
       </c>
-      <c r="I12" s="264">
+      <c r="I12" s="263">
         <f>H12*E12</f>
         <v>30000</v>
       </c>
-      <c r="J12" s="265">
+      <c r="J12" s="264">
         <f>I12+G12</f>
         <v>1530000</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="256">
+      <c r="A13" s="255">
         <f>A11+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="266"/>
-      <c r="C13" s="267" t="s">
+      <c r="B13" s="265"/>
+      <c r="C13" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="268"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="271"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="271"/>
-      <c r="J13" s="272"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="271"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="256"/>
-      <c r="B14" s="259" t="s">
+      <c r="A14" s="255"/>
+      <c r="B14" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="260" t="s">
+      <c r="C14" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="261" t="str">
+      <c r="D14" s="260" t="str">
         <f>IF(C14="","",IF(E14="","",IF(E14&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E14" s="262">
+      <c r="E14" s="261">
         <v>1</v>
       </c>
-      <c r="F14" s="263">
+      <c r="F14" s="262">
         <v>615000</v>
       </c>
-      <c r="G14" s="264">
+      <c r="G14" s="263">
         <f>F14*E14</f>
         <v>615000</v>
       </c>
-      <c r="H14" s="263">
+      <c r="H14" s="262">
         <v>7500</v>
       </c>
-      <c r="I14" s="264">
+      <c r="I14" s="263">
         <f>H14*E14</f>
         <v>7500</v>
       </c>
-      <c r="J14" s="265">
+      <c r="J14" s="264">
         <f>I14+G14</f>
         <v>622500</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="256">
+      <c r="A15" s="255">
         <f>A13+1</f>
         <v>3</v>
       </c>
-      <c r="B15" s="257"/>
-      <c r="C15" s="258" t="s">
+      <c r="B15" s="256"/>
+      <c r="C15" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="273"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="275"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="277"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="274"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="274"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="276"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="256"/>
-      <c r="B16" s="278" t="s">
+      <c r="A16" s="255"/>
+      <c r="B16" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="279" t="s">
+      <c r="C16" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="261" t="s">
+      <c r="D16" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="262">
+      <c r="E16" s="261">
         <v>250</v>
       </c>
-      <c r="F16" s="263">
+      <c r="F16" s="262">
         <v>550</v>
       </c>
-      <c r="G16" s="264">
+      <c r="G16" s="263">
         <f t="shared" ref="G16:G22" si="0">F16*E16</f>
         <v>137500</v>
       </c>
-      <c r="H16" s="263">
+      <c r="H16" s="262">
         <v>200</v>
       </c>
-      <c r="I16" s="264">
+      <c r="I16" s="263">
         <f t="shared" ref="I16:I22" si="1">H16*E16</f>
         <v>50000</v>
       </c>
-      <c r="J16" s="265">
+      <c r="J16" s="264">
         <f t="shared" ref="J16:J22" si="2">I16+G16</f>
         <v>187500</v>
       </c>
-      <c r="K16" s="230"/>
-      <c r="L16" s="230"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="229"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="256"/>
-      <c r="B17" s="278" t="s">
+      <c r="A17" s="255"/>
+      <c r="B17" s="277" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="279" t="s">
+      <c r="C17" s="278" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="261" t="s">
+      <c r="D17" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="262">
+      <c r="E17" s="261">
         <v>100</v>
       </c>
-      <c r="F17" s="263">
+      <c r="F17" s="262">
         <v>700</v>
       </c>
-      <c r="G17" s="264">
+      <c r="G17" s="263">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="H17" s="263">
+      <c r="H17" s="262">
         <v>225</v>
       </c>
-      <c r="I17" s="264">
+      <c r="I17" s="263">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J17" s="265">
+      <c r="J17" s="264">
         <f t="shared" si="2"/>
         <v>92500</v>
       </c>
-      <c r="K17" s="230"/>
-      <c r="L17" s="230"/>
+      <c r="K17" s="229"/>
+      <c r="L17" s="229"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="256"/>
-      <c r="B18" s="278" t="s">
+      <c r="A18" s="255"/>
+      <c r="B18" s="277" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="280" t="s">
+      <c r="C18" s="279" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="281" t="s">
+      <c r="D18" s="280" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="282">
+      <c r="E18" s="281">
         <v>40</v>
       </c>
-      <c r="F18" s="263">
+      <c r="F18" s="262">
         <v>850</v>
       </c>
-      <c r="G18" s="264">
+      <c r="G18" s="263">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="H18" s="263">
+      <c r="H18" s="262">
         <v>250</v>
       </c>
-      <c r="I18" s="264">
+      <c r="I18" s="263">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="J18" s="265">
+      <c r="J18" s="264">
         <f t="shared" si="2"/>
         <v>44000</v>
       </c>
-      <c r="K18" s="230"/>
-      <c r="L18" s="230"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="229"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="256"/>
-      <c r="B19" s="278" t="s">
+      <c r="A19" s="255"/>
+      <c r="B19" s="277" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="279" t="s">
+      <c r="C19" s="278" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="261" t="s">
+      <c r="D19" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="262">
+      <c r="E19" s="261">
         <v>40</v>
       </c>
-      <c r="F19" s="263">
+      <c r="F19" s="262">
         <v>950</v>
       </c>
-      <c r="G19" s="264">
+      <c r="G19" s="263">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
-      <c r="H19" s="263">
+      <c r="H19" s="262">
         <v>300</v>
       </c>
-      <c r="I19" s="264">
+      <c r="I19" s="263">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="J19" s="265">
+      <c r="J19" s="264">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K19" s="230"/>
-      <c r="L19" s="230"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="229"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="256"/>
-      <c r="B20" s="278" t="s">
+      <c r="A20" s="255"/>
+      <c r="B20" s="277" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="279" t="s">
+      <c r="C20" s="278" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="261" t="s">
+      <c r="D20" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="262">
+      <c r="E20" s="261">
         <v>70</v>
       </c>
-      <c r="F20" s="263">
+      <c r="F20" s="262">
         <v>1600</v>
       </c>
-      <c r="G20" s="264">
+      <c r="G20" s="263">
         <f t="shared" si="0"/>
         <v>112000</v>
       </c>
-      <c r="H20" s="263">
+      <c r="H20" s="262">
         <v>400</v>
       </c>
-      <c r="I20" s="264">
+      <c r="I20" s="263">
         <f t="shared" si="1"/>
         <v>28000</v>
       </c>
-      <c r="J20" s="265">
+      <c r="J20" s="264">
         <f t="shared" si="2"/>
         <v>140000</v>
       </c>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="283"/>
-      <c r="B21" s="284" t="s">
+      <c r="A21" s="282"/>
+      <c r="B21" s="283" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="285" t="s">
+      <c r="C21" s="284" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="286" t="s">
+      <c r="D21" s="285" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="287">
+      <c r="E21" s="286">
         <v>30</v>
       </c>
-      <c r="F21" s="288">
+      <c r="F21" s="287">
         <v>1950</v>
       </c>
-      <c r="G21" s="289">
+      <c r="G21" s="288">
         <f t="shared" si="0"/>
         <v>58500</v>
       </c>
-      <c r="H21" s="288">
+      <c r="H21" s="287">
         <v>500</v>
       </c>
-      <c r="I21" s="289">
+      <c r="I21" s="288">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="J21" s="290">
+      <c r="J21" s="289">
         <f t="shared" si="2"/>
         <v>73500</v>
       </c>
-      <c r="K21" s="230"/>
-      <c r="L21" s="230"/>
+      <c r="K21" s="229"/>
+      <c r="L21" s="229"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="256"/>
-      <c r="B22" s="278" t="s">
+      <c r="A22" s="255"/>
+      <c r="B22" s="277" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="279" t="s">
+      <c r="C22" s="278" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="262">
+      <c r="E22" s="261">
         <v>10</v>
       </c>
-      <c r="F22" s="263">
+      <c r="F22" s="262">
         <v>2800</v>
       </c>
-      <c r="G22" s="264">
+      <c r="G22" s="263">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="H22" s="263">
+      <c r="H22" s="262">
         <v>750</v>
       </c>
-      <c r="I22" s="264">
+      <c r="I22" s="263">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="J22" s="265">
+      <c r="J22" s="264">
         <f t="shared" si="2"/>
         <v>35500</v>
       </c>
-      <c r="K22" s="230"/>
-      <c r="L22" s="230"/>
-    </row>
-    <row r="23" spans="1:12" s="295" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="256">
+      <c r="K22" s="229"/>
+      <c r="L22" s="229"/>
+    </row>
+    <row r="23" spans="1:12" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="255">
         <f>A15+1</f>
         <v>4</v>
       </c>
-      <c r="B23" s="291"/>
-      <c r="C23" s="335" t="s">
+      <c r="B23" s="290"/>
+      <c r="C23" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="268"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="270"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="271"/>
-      <c r="J23" s="272"/>
-    </row>
-    <row r="24" spans="1:12" s="297" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="267"/>
+      <c r="E23" s="268"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="269"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="271"/>
+    </row>
+    <row r="24" spans="1:12" s="296" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="296" t="s">
+      <c r="B24" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="279" t="s">
+      <c r="C24" s="278" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="261" t="str">
+      <c r="D24" s="260" t="str">
         <f>IF(C24="","",IF(E24="","",IF(E24&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E24" s="262">
+      <c r="E24" s="261">
         <v>34</v>
       </c>
-      <c r="F24" s="263">
+      <c r="F24" s="262">
         <v>2150</v>
       </c>
-      <c r="G24" s="264">
+      <c r="G24" s="263">
         <f>F24*E24</f>
         <v>73100</v>
       </c>
-      <c r="H24" s="263">
+      <c r="H24" s="262">
         <v>500</v>
       </c>
-      <c r="I24" s="264">
+      <c r="I24" s="263">
         <f>H24*E24</f>
         <v>17000</v>
       </c>
-      <c r="J24" s="265">
+      <c r="J24" s="264">
         <f>I24+G24</f>
         <v>90100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="297" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="296" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="296" t="s">
+      <c r="B25" s="295" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="279" t="s">
+      <c r="C25" s="278" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="261" t="str">
+      <c r="D25" s="260" t="str">
         <f>IF(C25="","",IF(E25="","",IF(E25&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E25" s="262">
+      <c r="E25" s="261">
         <v>1</v>
       </c>
-      <c r="F25" s="263">
+      <c r="F25" s="262">
         <v>7500</v>
       </c>
-      <c r="G25" s="264">
+      <c r="G25" s="263">
         <f>F25*E25</f>
         <v>7500</v>
       </c>
-      <c r="H25" s="263">
+      <c r="H25" s="262">
         <v>1000</v>
       </c>
-      <c r="I25" s="264">
+      <c r="I25" s="263">
         <f>H25*E25</f>
         <v>1000</v>
       </c>
-      <c r="J25" s="265">
+      <c r="J25" s="264">
         <f>I25+G25</f>
         <v>8500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="295" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="294" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <f>A23+1</f>
         <v>5</v>
       </c>
-      <c r="B26" s="298"/>
-      <c r="C26" s="292" t="s">
+      <c r="B26" s="297"/>
+      <c r="C26" s="291" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="299"/>
+      <c r="D26" s="298"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="293"/>
-      <c r="H26" s="300"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="294"/>
+      <c r="F26" s="299"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="292"/>
+      <c r="J26" s="293"/>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="301"/>
-      <c r="B27" s="302" t="s">
+      <c r="A27" s="300"/>
+      <c r="B27" s="301" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="279" t="s">
+      <c r="C27" s="278" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="261" t="str">
+      <c r="D27" s="260" t="str">
         <f t="shared" ref="D27:D28" si="3">IF(C27="","",IF(E27="","",IF(E27&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E27" s="303">
+      <c r="E27" s="302">
         <v>8</v>
       </c>
-      <c r="F27" s="263">
+      <c r="F27" s="262">
         <v>25250</v>
       </c>
-      <c r="G27" s="264">
+      <c r="G27" s="263">
         <f>F27*E27</f>
         <v>202000</v>
       </c>
-      <c r="H27" s="263">
+      <c r="H27" s="262">
         <v>750</v>
       </c>
-      <c r="I27" s="264">
+      <c r="I27" s="263">
         <f>H27*E27</f>
         <v>6000</v>
       </c>
-      <c r="J27" s="265">
+      <c r="J27" s="264">
         <f>I27+G27</f>
         <v>208000</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="301"/>
-      <c r="B28" s="302" t="s">
+      <c r="A28" s="300"/>
+      <c r="B28" s="301" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="280" t="s">
+      <c r="C28" s="279" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="281" t="str">
+      <c r="D28" s="280" t="str">
         <f t="shared" si="3"/>
         <v>Nos.</v>
       </c>
       <c r="E28" s="68">
         <v>8</v>
       </c>
-      <c r="F28" s="263">
+      <c r="F28" s="262">
         <v>14250</v>
       </c>
-      <c r="G28" s="264">
+      <c r="G28" s="263">
         <f>F28*E28</f>
         <v>114000</v>
       </c>
-      <c r="H28" s="263">
+      <c r="H28" s="262">
         <v>750</v>
       </c>
-      <c r="I28" s="264">
+      <c r="I28" s="263">
         <f>H28*E28</f>
         <v>6000</v>
       </c>
-      <c r="J28" s="265">
+      <c r="J28" s="264">
         <f>I28+G28</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="304" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="301"/>
-      <c r="B29" s="302" t="s">
+    <row r="29" spans="1:12" s="303" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="300"/>
+      <c r="B29" s="301" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="279" t="s">
+      <c r="C29" s="278" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="261" t="s">
+      <c r="D29" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="262"/>
-      <c r="F29" s="263"/>
-      <c r="G29" s="264"/>
-      <c r="H29" s="263"/>
-      <c r="I29" s="264"/>
-      <c r="J29" s="265"/>
-    </row>
-    <row r="30" spans="1:12" s="304" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="301"/>
-      <c r="B30" s="302" t="s">
+      <c r="E29" s="261"/>
+      <c r="F29" s="262"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="262"/>
+      <c r="I29" s="263"/>
+      <c r="J29" s="264"/>
+    </row>
+    <row r="30" spans="1:12" s="303" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="300"/>
+      <c r="B30" s="301" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="279" t="s">
+      <c r="C30" s="278" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="261" t="s">
+      <c r="D30" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="262">
+      <c r="E30" s="261">
         <v>3</v>
       </c>
-      <c r="F30" s="263">
+      <c r="F30" s="262">
         <v>29900</v>
       </c>
-      <c r="G30" s="264">
+      <c r="G30" s="263">
         <f>F30*E30</f>
         <v>89700</v>
       </c>
-      <c r="H30" s="263">
+      <c r="H30" s="262">
         <v>1000</v>
       </c>
-      <c r="I30" s="264">
+      <c r="I30" s="263">
         <f>H30*E30</f>
         <v>3000</v>
       </c>
-      <c r="J30" s="265">
+      <c r="J30" s="264">
         <f>I30+G30</f>
         <v>92700</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="306" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="256">
+    <row r="31" spans="1:12" s="305" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="255">
         <f>A26+1</f>
         <v>6</v>
       </c>
-      <c r="B31" s="257"/>
-      <c r="C31" s="292" t="s">
+      <c r="B31" s="256"/>
+      <c r="C31" s="291" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="273"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="293"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="293"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="305"/>
-      <c r="L31" s="305"/>
-    </row>
-    <row r="32" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="256"/>
-      <c r="B32" s="296" t="s">
+      <c r="D31" s="272"/>
+      <c r="E31" s="273"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="292"/>
+      <c r="J31" s="293"/>
+      <c r="K31" s="304"/>
+      <c r="L31" s="304"/>
+    </row>
+    <row r="32" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="255"/>
+      <c r="B32" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="307" t="s">
+      <c r="C32" s="306" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="273"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="293"/>
-      <c r="H32" s="275"/>
-      <c r="I32" s="293"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="305"/>
-      <c r="L32" s="305"/>
-    </row>
-    <row r="33" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="256"/>
-      <c r="B33" s="296" t="s">
+      <c r="D32" s="272"/>
+      <c r="E32" s="273"/>
+      <c r="F32" s="274"/>
+      <c r="G32" s="292"/>
+      <c r="H32" s="274"/>
+      <c r="I32" s="292"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="304"/>
+      <c r="L32" s="304"/>
+    </row>
+    <row r="33" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="255"/>
+      <c r="B33" s="295" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="307" t="s">
+      <c r="C33" s="306" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="273"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="275"/>
-      <c r="G33" s="293"/>
-      <c r="H33" s="275"/>
-      <c r="I33" s="293"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="305"/>
-      <c r="L33" s="305"/>
-    </row>
-    <row r="34" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="256"/>
-      <c r="B34" s="296" t="s">
+      <c r="D33" s="272"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="274"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="274"/>
+      <c r="I33" s="292"/>
+      <c r="J33" s="293"/>
+      <c r="K33" s="304"/>
+      <c r="L33" s="304"/>
+    </row>
+    <row r="34" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="255"/>
+      <c r="B34" s="295" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="307" t="s">
+      <c r="C34" s="306" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="273" t="str">
+      <c r="D34" s="272" t="str">
         <f>IF(C34="","",IF(E34="","",IF(E34&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E34" s="274">
+      <c r="E34" s="273">
         <v>1</v>
       </c>
-      <c r="F34" s="263">
+      <c r="F34" s="262">
         <v>619000</v>
       </c>
-      <c r="G34" s="264">
+      <c r="G34" s="263">
         <f>F34*E34</f>
         <v>619000</v>
       </c>
-      <c r="H34" s="263">
+      <c r="H34" s="262">
         <v>8000</v>
       </c>
-      <c r="I34" s="264">
+      <c r="I34" s="263">
         <f>H34*E34</f>
         <v>8000</v>
       </c>
-      <c r="J34" s="265">
+      <c r="J34" s="264">
         <f>I34+G34</f>
         <v>627000</v>
       </c>
-      <c r="K34" s="305"/>
-      <c r="L34" s="305"/>
-    </row>
-    <row r="35" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="256"/>
-      <c r="B35" s="296" t="s">
+      <c r="K34" s="304"/>
+      <c r="L34" s="304"/>
+    </row>
+    <row r="35" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="255"/>
+      <c r="B35" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="307" t="s">
+      <c r="C35" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="273"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="293"/>
-      <c r="H35" s="275"/>
-      <c r="I35" s="293"/>
-      <c r="J35" s="294"/>
-      <c r="K35" s="305"/>
-      <c r="L35" s="305"/>
-    </row>
-    <row r="36" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="256"/>
-      <c r="B36" s="296" t="s">
+      <c r="D35" s="272"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="274"/>
+      <c r="I35" s="292"/>
+      <c r="J35" s="293"/>
+      <c r="K35" s="304"/>
+      <c r="L35" s="304"/>
+    </row>
+    <row r="36" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="255"/>
+      <c r="B36" s="295" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="279" t="s">
+      <c r="C36" s="278" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="273"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="293"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="293"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="305"/>
-      <c r="L36" s="305"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="273"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="292"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="292"/>
+      <c r="J36" s="293"/>
+      <c r="K36" s="304"/>
+      <c r="L36" s="304"/>
     </row>
     <row r="37" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="256">
+      <c r="A37" s="255">
         <f>A31+1</f>
         <v>7</v>
       </c>
-      <c r="B37" s="257"/>
-      <c r="C37" s="307" t="s">
+      <c r="B37" s="256"/>
+      <c r="C37" s="306" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="273"/>
-      <c r="E37" s="274"/>
-      <c r="F37" s="275"/>
-      <c r="G37" s="293"/>
-      <c r="H37" s="275"/>
-      <c r="I37" s="293"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="230"/>
-      <c r="L37" s="230"/>
+      <c r="D37" s="272"/>
+      <c r="E37" s="273"/>
+      <c r="F37" s="274"/>
+      <c r="G37" s="292"/>
+      <c r="H37" s="274"/>
+      <c r="I37" s="292"/>
+      <c r="J37" s="293"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="229"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="256"/>
-      <c r="B38" s="278" t="s">
+      <c r="A38" s="255"/>
+      <c r="B38" s="277" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="260" t="s">
+      <c r="C38" s="259" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="261" t="str">
+      <c r="D38" s="260" t="str">
         <f t="shared" ref="D38:D43" si="4">IF(C38="","",IF(E38="","",IF(E38&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E38" s="262">
+      <c r="E38" s="261">
         <v>1</v>
       </c>
-      <c r="F38" s="263">
+      <c r="F38" s="262">
         <v>492000</v>
       </c>
-      <c r="G38" s="264">
+      <c r="G38" s="263">
         <f t="shared" ref="G38:G43" si="5">F38*E38</f>
         <v>492000</v>
       </c>
-      <c r="H38" s="263">
+      <c r="H38" s="262">
         <v>10000</v>
       </c>
-      <c r="I38" s="264">
+      <c r="I38" s="263">
         <f t="shared" ref="I38:I43" si="6">H38*E38</f>
         <v>10000</v>
       </c>
-      <c r="J38" s="265">
+      <c r="J38" s="264">
         <f t="shared" ref="J38:J43" si="7">I38+G38</f>
         <v>502000</v>
       </c>
-      <c r="K38" s="230"/>
-      <c r="L38" s="230"/>
+      <c r="K38" s="229"/>
+      <c r="L38" s="229"/>
     </row>
     <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <f>A37+1</f>
         <v>8</v>
       </c>
-      <c r="B39" s="291"/>
-      <c r="C39" s="279" t="s">
+      <c r="B39" s="290"/>
+      <c r="C39" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="261" t="str">
+      <c r="D39" s="260" t="str">
         <f t="shared" si="4"/>
         <v>No.</v>
       </c>
-      <c r="E39" s="262">
+      <c r="E39" s="261">
         <v>1</v>
       </c>
-      <c r="F39" s="263">
+      <c r="F39" s="262">
         <v>467400</v>
       </c>
-      <c r="G39" s="264">
+      <c r="G39" s="263">
         <f t="shared" si="5"/>
         <v>467400</v>
       </c>
-      <c r="H39" s="263">
+      <c r="H39" s="262">
         <v>10000</v>
       </c>
-      <c r="I39" s="264">
+      <c r="I39" s="263">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="J39" s="265">
+      <c r="J39" s="264">
         <f t="shared" si="7"/>
         <v>477400</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <f>A39+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="291"/>
-      <c r="C40" s="280" t="s">
+      <c r="B40" s="290"/>
+      <c r="C40" s="279" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="281" t="str">
+      <c r="D40" s="280" t="str">
         <f t="shared" si="4"/>
         <v>No.</v>
       </c>
-      <c r="E40" s="282">
+      <c r="E40" s="281">
         <v>1</v>
       </c>
-      <c r="F40" s="263">
+      <c r="F40" s="262">
         <v>39500</v>
       </c>
-      <c r="G40" s="264">
+      <c r="G40" s="263">
         <f t="shared" si="5"/>
         <v>39500</v>
       </c>
-      <c r="H40" s="263">
+      <c r="H40" s="262">
         <v>1000</v>
       </c>
-      <c r="I40" s="264">
+      <c r="I40" s="263">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J40" s="265">
+      <c r="J40" s="264">
         <f t="shared" si="7"/>
         <v>40500</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <f>A40+1</f>
         <v>10</v>
       </c>
-      <c r="B41" s="291"/>
-      <c r="C41" s="279" t="s">
+      <c r="B41" s="290"/>
+      <c r="C41" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="261" t="str">
+      <c r="D41" s="260" t="str">
         <f t="shared" si="4"/>
         <v>No.</v>
       </c>
-      <c r="E41" s="262">
+      <c r="E41" s="261">
         <v>1</v>
       </c>
-      <c r="F41" s="263">
+      <c r="F41" s="262">
         <v>45000</v>
       </c>
-      <c r="G41" s="264">
+      <c r="G41" s="263">
         <f t="shared" si="5"/>
         <v>45000</v>
       </c>
-      <c r="H41" s="263">
+      <c r="H41" s="262">
         <v>5000</v>
       </c>
-      <c r="I41" s="264">
+      <c r="I41" s="263">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J41" s="265">
+      <c r="J41" s="264">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <f>A41+1</f>
         <v>11</v>
       </c>
-      <c r="B42" s="291"/>
-      <c r="C42" s="279" t="s">
+      <c r="B42" s="290"/>
+      <c r="C42" s="278" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="261" t="str">
+      <c r="D42" s="260" t="str">
         <f t="shared" si="4"/>
         <v>No.</v>
       </c>
-      <c r="E42" s="262">
+      <c r="E42" s="261">
         <v>1</v>
       </c>
-      <c r="F42" s="263">
+      <c r="F42" s="262">
         <v>115000</v>
       </c>
-      <c r="G42" s="264">
+      <c r="G42" s="263">
         <f t="shared" si="5"/>
         <v>115000</v>
       </c>
-      <c r="H42" s="263">
+      <c r="H42" s="262">
         <v>10000</v>
       </c>
-      <c r="I42" s="264">
+      <c r="I42" s="263">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="J42" s="265">
+      <c r="J42" s="264">
         <f t="shared" si="7"/>
         <v>125000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="170">
         <f>A42+1</f>
         <v>12</v>
       </c>
-      <c r="B43" s="336"/>
-      <c r="C43" s="337" t="s">
+      <c r="B43" s="335"/>
+      <c r="C43" s="336" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="312" t="str">
+      <c r="D43" s="311" t="str">
         <f t="shared" si="4"/>
         <v>No.</v>
       </c>
-      <c r="E43" s="313">
+      <c r="E43" s="312">
         <v>1</v>
       </c>
-      <c r="F43" s="288">
+      <c r="F43" s="287">
         <v>400000</v>
       </c>
-      <c r="G43" s="289">
+      <c r="G43" s="288">
         <f t="shared" si="5"/>
         <v>400000</v>
       </c>
-      <c r="H43" s="288">
+      <c r="H43" s="287">
         <v>10000</v>
       </c>
-      <c r="I43" s="289">
+      <c r="I43" s="288">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="J43" s="290">
+      <c r="J43" s="289">
         <f t="shared" si="7"/>
         <v>410000</v>
       </c>
@@ -9601,48 +9616,48 @@
         <f>A43+1</f>
         <v>13</v>
       </c>
-      <c r="B44" s="291"/>
-      <c r="C44" s="307" t="s">
+      <c r="B44" s="290"/>
+      <c r="C44" s="306" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="273"/>
-      <c r="E44" s="274"/>
-      <c r="F44" s="263"/>
-      <c r="G44" s="264"/>
-      <c r="H44" s="263"/>
-      <c r="I44" s="264"/>
-      <c r="J44" s="265"/>
-    </row>
-    <row r="45" spans="1:12" s="306" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="256"/>
-      <c r="B45" s="338" t="s">
+      <c r="D44" s="272"/>
+      <c r="E44" s="273"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="263"/>
+      <c r="H44" s="262"/>
+      <c r="I44" s="263"/>
+      <c r="J44" s="264"/>
+    </row>
+    <row r="45" spans="1:12" s="305" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="255"/>
+      <c r="B45" s="337" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="315" t="s">
+      <c r="C45" s="314" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="261" t="str">
+      <c r="D45" s="260" t="str">
         <f>IF(C45="","",IF(E45="","",IF(E45&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E45" s="262">
+      <c r="E45" s="261">
         <v>4</v>
       </c>
-      <c r="F45" s="263">
+      <c r="F45" s="262">
         <v>211000</v>
       </c>
-      <c r="G45" s="264">
+      <c r="G45" s="263">
         <f>F45*E45</f>
         <v>844000</v>
       </c>
-      <c r="H45" s="263">
+      <c r="H45" s="262">
         <v>5000</v>
       </c>
-      <c r="I45" s="264">
+      <c r="I45" s="263">
         <f>H45*E45</f>
         <v>20000</v>
       </c>
-      <c r="J45" s="265">
+      <c r="J45" s="264">
         <f>I45+G45</f>
         <v>864000</v>
       </c>
@@ -9652,48 +9667,48 @@
         <f>A44+1</f>
         <v>14</v>
       </c>
-      <c r="B46" s="291"/>
-      <c r="C46" s="339" t="s">
+      <c r="B46" s="290"/>
+      <c r="C46" s="338" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="273"/>
-      <c r="E46" s="274"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="308"/>
-      <c r="H46" s="275"/>
-      <c r="I46" s="308"/>
-      <c r="J46" s="309"/>
+      <c r="D46" s="272"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="274"/>
+      <c r="G46" s="307"/>
+      <c r="H46" s="274"/>
+      <c r="I46" s="307"/>
+      <c r="J46" s="308"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="256"/>
-      <c r="B47" s="259" t="s">
+      <c r="A47" s="255"/>
+      <c r="B47" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="315" t="s">
+      <c r="C47" s="314" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="261" t="str">
+      <c r="D47" s="260" t="str">
         <f>IF(C47="","",IF(E47="","",IF(E47&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E47" s="262">
+      <c r="E47" s="261">
         <v>2</v>
       </c>
-      <c r="F47" s="263">
+      <c r="F47" s="262">
         <v>41500</v>
       </c>
-      <c r="G47" s="264">
+      <c r="G47" s="263">
         <f>F47*E47</f>
         <v>83000</v>
       </c>
-      <c r="H47" s="263">
+      <c r="H47" s="262">
         <v>5000</v>
       </c>
-      <c r="I47" s="264">
+      <c r="I47" s="263">
         <f>H47*E47</f>
         <v>10000</v>
       </c>
-      <c r="J47" s="265">
+      <c r="J47" s="264">
         <f>I47+G47</f>
         <v>93000</v>
       </c>
@@ -9703,375 +9718,375 @@
         <f>A46+1</f>
         <v>15</v>
       </c>
-      <c r="B48" s="266"/>
-      <c r="C48" s="307" t="s">
+      <c r="B48" s="265"/>
+      <c r="C48" s="306" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="273"/>
-      <c r="E48" s="274"/>
-      <c r="F48" s="275"/>
-      <c r="G48" s="308"/>
-      <c r="H48" s="275"/>
-      <c r="I48" s="308"/>
-      <c r="J48" s="309"/>
-    </row>
-    <row r="49" spans="1:25" s="295" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="272"/>
+      <c r="E48" s="273"/>
+      <c r="F48" s="274"/>
+      <c r="G48" s="307"/>
+      <c r="H48" s="274"/>
+      <c r="I48" s="307"/>
+      <c r="J48" s="308"/>
+    </row>
+    <row r="49" spans="1:25" s="294" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="315" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="315" t="s">
+      <c r="C49" s="314" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="261" t="str">
+      <c r="D49" s="260" t="str">
         <f>IF(C49="","",IF(E49="","",IF(E49&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E49" s="262">
+      <c r="E49" s="261">
         <v>2</v>
       </c>
-      <c r="F49" s="263">
+      <c r="F49" s="262">
         <v>93000</v>
       </c>
-      <c r="G49" s="264">
+      <c r="G49" s="263">
         <f t="shared" ref="G49:G58" si="8">F49*E49</f>
         <v>186000</v>
       </c>
-      <c r="H49" s="263">
+      <c r="H49" s="262">
         <v>5000</v>
       </c>
-      <c r="I49" s="264">
+      <c r="I49" s="263">
         <f t="shared" ref="I49:I58" si="9">H49*E49</f>
         <v>10000</v>
       </c>
-      <c r="J49" s="265">
+      <c r="J49" s="264">
         <f t="shared" ref="J49:J58" si="10">I49+G49</f>
         <v>196000</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="318" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="256">
+    <row r="50" spans="1:25" s="317" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="255">
         <f>A48+1</f>
         <v>16</v>
       </c>
-      <c r="B50" s="317"/>
-      <c r="C50" s="258" t="s">
+      <c r="B50" s="316"/>
+      <c r="C50" s="257" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="273" t="s">
+      <c r="D50" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="274">
+      <c r="E50" s="273">
         <v>1</v>
       </c>
-      <c r="F50" s="263">
+      <c r="F50" s="262">
         <v>4450000</v>
       </c>
-      <c r="G50" s="264">
+      <c r="G50" s="263">
         <f t="shared" si="8"/>
         <v>4450000</v>
       </c>
-      <c r="H50" s="263">
+      <c r="H50" s="262">
         <v>150000</v>
       </c>
-      <c r="I50" s="264">
+      <c r="I50" s="263">
         <f t="shared" si="9"/>
         <v>150000</v>
       </c>
-      <c r="J50" s="265">
+      <c r="J50" s="264">
         <f t="shared" si="10"/>
         <v>4600000</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="319">
+      <c r="A51" s="318">
         <f>A50+1</f>
         <v>17</v>
       </c>
-      <c r="B51" s="257"/>
-      <c r="C51" s="280" t="s">
+      <c r="B51" s="256"/>
+      <c r="C51" s="279" t="s">
         <v>168</v>
       </c>
-      <c r="D51" s="281" t="s">
+      <c r="D51" s="280" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="68">
         <v>1</v>
       </c>
-      <c r="F51" s="263">
+      <c r="F51" s="262">
         <v>465000</v>
       </c>
-      <c r="G51" s="264">
+      <c r="G51" s="263">
         <f t="shared" si="8"/>
         <v>465000</v>
       </c>
-      <c r="H51" s="263">
+      <c r="H51" s="262">
         <v>35000</v>
       </c>
-      <c r="I51" s="264">
+      <c r="I51" s="263">
         <f t="shared" si="9"/>
         <v>35000</v>
       </c>
-      <c r="J51" s="265">
+      <c r="J51" s="264">
         <f t="shared" si="10"/>
         <v>500000</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="256">
+      <c r="A52" s="255">
         <f t="shared" ref="A52:A58" si="11">A51+1</f>
         <v>18</v>
       </c>
-      <c r="B52" s="257"/>
-      <c r="C52" s="320" t="s">
+      <c r="B52" s="256"/>
+      <c r="C52" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="281" t="s">
+      <c r="D52" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="282">
+      <c r="E52" s="281">
         <v>1</v>
       </c>
-      <c r="F52" s="263">
+      <c r="F52" s="262">
         <v>180000</v>
       </c>
-      <c r="G52" s="264">
+      <c r="G52" s="263">
         <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-      <c r="H52" s="263">
+      <c r="H52" s="262">
         <v>20000</v>
       </c>
-      <c r="I52" s="264">
+      <c r="I52" s="263">
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="J52" s="265">
+      <c r="J52" s="264">
         <f t="shared" si="10"/>
         <v>200000</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="112.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="283">
+      <c r="A53" s="282">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="B53" s="321"/>
-      <c r="C53" s="337" t="s">
+      <c r="B53" s="320"/>
+      <c r="C53" s="336" t="s">
         <v>170</v>
       </c>
-      <c r="D53" s="312" t="s">
+      <c r="D53" s="311" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="313">
+      <c r="E53" s="312">
         <v>1</v>
       </c>
-      <c r="F53" s="288">
+      <c r="F53" s="287">
         <v>175000</v>
       </c>
-      <c r="G53" s="289">
+      <c r="G53" s="288">
         <f t="shared" si="8"/>
         <v>175000</v>
       </c>
-      <c r="H53" s="288">
+      <c r="H53" s="287">
         <v>35000</v>
       </c>
-      <c r="I53" s="289">
+      <c r="I53" s="288">
         <f t="shared" si="9"/>
         <v>35000</v>
       </c>
-      <c r="J53" s="290">
+      <c r="J53" s="289">
         <f t="shared" si="10"/>
         <v>210000</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="340">
+      <c r="A54" s="339">
         <f>A53+1</f>
         <v>20</v>
       </c>
-      <c r="B54" s="341"/>
-      <c r="C54" s="342" t="s">
+      <c r="B54" s="340"/>
+      <c r="C54" s="341" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="343" t="s">
+      <c r="D54" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="344">
+      <c r="E54" s="343">
         <v>1</v>
       </c>
-      <c r="F54" s="263">
+      <c r="F54" s="262">
         <v>60000</v>
       </c>
-      <c r="G54" s="264">
+      <c r="G54" s="263">
         <f t="shared" si="8"/>
         <v>60000</v>
       </c>
-      <c r="H54" s="263">
+      <c r="H54" s="262">
         <v>20000</v>
       </c>
-      <c r="I54" s="264">
+      <c r="I54" s="263">
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="J54" s="265">
+      <c r="J54" s="264">
         <f t="shared" si="10"/>
         <v>80000</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="256">
+      <c r="A55" s="255">
         <f>A54+1</f>
         <v>21</v>
       </c>
-      <c r="B55" s="257"/>
-      <c r="C55" s="323" t="s">
+      <c r="B55" s="256"/>
+      <c r="C55" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="261" t="s">
+      <c r="D55" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="262">
+      <c r="E55" s="261">
         <v>1</v>
       </c>
-      <c r="F55" s="263">
+      <c r="F55" s="262">
         <v>15000</v>
       </c>
-      <c r="G55" s="264">
+      <c r="G55" s="263">
         <f t="shared" si="8"/>
         <v>15000</v>
       </c>
-      <c r="H55" s="263">
+      <c r="H55" s="262">
         <v>15000</v>
       </c>
-      <c r="I55" s="264">
+      <c r="I55" s="263">
         <f t="shared" si="9"/>
         <v>15000</v>
       </c>
-      <c r="J55" s="265">
+      <c r="J55" s="264">
         <f t="shared" si="10"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="295" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="256">
+    <row r="56" spans="1:25" s="294" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="255">
         <f>A55+1</f>
         <v>22</v>
       </c>
-      <c r="B56" s="291"/>
-      <c r="C56" s="279" t="s">
+      <c r="B56" s="290"/>
+      <c r="C56" s="278" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="261" t="s">
+      <c r="D56" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="262">
+      <c r="E56" s="261">
         <v>1</v>
       </c>
-      <c r="F56" s="263">
+      <c r="F56" s="262">
         <v>40000</v>
       </c>
-      <c r="G56" s="264">
+      <c r="G56" s="263">
         <f t="shared" si="8"/>
         <v>40000</v>
       </c>
-      <c r="H56" s="263">
+      <c r="H56" s="262">
         <v>35000</v>
       </c>
-      <c r="I56" s="264">
+      <c r="I56" s="263">
         <f t="shared" si="9"/>
         <v>35000</v>
       </c>
-      <c r="J56" s="265">
+      <c r="J56" s="264">
         <f t="shared" si="10"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="295" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" s="294" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="B57" s="291"/>
-      <c r="C57" s="279" t="s">
+      <c r="B57" s="290"/>
+      <c r="C57" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="261" t="s">
+      <c r="D57" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="262">
+      <c r="E57" s="261">
         <v>1</v>
       </c>
-      <c r="F57" s="263">
+      <c r="F57" s="262">
         <v>20000</v>
       </c>
-      <c r="G57" s="264">
+      <c r="G57" s="263">
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="H57" s="263">
+      <c r="H57" s="262">
         <v>30000</v>
       </c>
-      <c r="I57" s="264">
+      <c r="I57" s="263">
         <f t="shared" si="9"/>
         <v>30000</v>
       </c>
-      <c r="J57" s="265">
+      <c r="J57" s="264">
         <f t="shared" si="10"/>
         <v>50000</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="256">
+      <c r="A58" s="255">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="B58" s="257"/>
-      <c r="C58" s="324" t="s">
+      <c r="B58" s="256"/>
+      <c r="C58" s="323" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="261" t="s">
+      <c r="D58" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="262">
+      <c r="E58" s="261">
         <v>1</v>
       </c>
-      <c r="F58" s="263"/>
-      <c r="G58" s="264">
+      <c r="F58" s="262"/>
+      <c r="G58" s="263">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H58" s="263">
+      <c r="H58" s="262">
         <v>100000</v>
       </c>
-      <c r="I58" s="264">
+      <c r="I58" s="263">
         <f t="shared" si="9"/>
         <v>100000</v>
       </c>
-      <c r="J58" s="265">
+      <c r="J58" s="264">
         <f t="shared" si="10"/>
         <v>100000</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="325"/>
-      <c r="B59" s="326"/>
-      <c r="C59" s="327" t="s">
+      <c r="A59" s="324"/>
+      <c r="B59" s="325"/>
+      <c r="C59" s="326" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="328"/>
-      <c r="E59" s="328"/>
-      <c r="F59" s="329"/>
-      <c r="G59" s="345">
+      <c r="D59" s="327"/>
+      <c r="E59" s="327"/>
+      <c r="F59" s="328"/>
+      <c r="G59" s="344">
         <f>SUM(G10:G58)</f>
         <v>11775200</v>
       </c>
-      <c r="H59" s="329"/>
-      <c r="I59" s="345">
+      <c r="H59" s="328"/>
+      <c r="I59" s="344">
         <f>SUM(I10:I58)</f>
         <v>749500</v>
       </c>
-      <c r="J59" s="345">
+      <c r="J59" s="344">
         <f>SUM(J10:J58)</f>
         <v>12524700</v>
       </c>
@@ -10089,10 +10104,10 @@
       <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="482" t="s">
+      <c r="A61" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="482"/>
+      <c r="B61" s="484"/>
       <c r="C61" s="29"/>
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
@@ -10103,97 +10118,97 @@
       <c r="J61" s="30"/>
     </row>
     <row r="62" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="331" t="s">
+      <c r="A62" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="483" t="s">
+      <c r="B62" s="485" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="483"/>
-      <c r="D62" s="483"/>
-      <c r="E62" s="483"/>
-      <c r="F62" s="483"/>
-      <c r="G62" s="483"/>
-      <c r="H62" s="483"/>
-      <c r="I62" s="483"/>
-      <c r="J62" s="483"/>
-      <c r="K62" s="332"/>
-      <c r="L62" s="332"/>
-      <c r="M62" s="332"/>
-      <c r="N62" s="332"/>
-      <c r="O62" s="332"/>
-      <c r="P62" s="332"/>
-      <c r="Q62" s="332"/>
-      <c r="R62" s="332"/>
-      <c r="S62" s="332"/>
-      <c r="T62" s="332"/>
-      <c r="U62" s="332"/>
-      <c r="V62" s="332"/>
-      <c r="W62" s="332"/>
-      <c r="X62" s="332"/>
-      <c r="Y62" s="332"/>
+      <c r="C62" s="485"/>
+      <c r="D62" s="485"/>
+      <c r="E62" s="485"/>
+      <c r="F62" s="485"/>
+      <c r="G62" s="485"/>
+      <c r="H62" s="485"/>
+      <c r="I62" s="485"/>
+      <c r="J62" s="485"/>
+      <c r="K62" s="331"/>
+      <c r="L62" s="331"/>
+      <c r="M62" s="331"/>
+      <c r="N62" s="331"/>
+      <c r="O62" s="331"/>
+      <c r="P62" s="331"/>
+      <c r="Q62" s="331"/>
+      <c r="R62" s="331"/>
+      <c r="S62" s="331"/>
+      <c r="T62" s="331"/>
+      <c r="U62" s="331"/>
+      <c r="V62" s="331"/>
+      <c r="W62" s="331"/>
+      <c r="X62" s="331"/>
+      <c r="Y62" s="331"/>
     </row>
     <row r="63" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="331" t="s">
+      <c r="A63" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="B63" s="483" t="s">
+      <c r="B63" s="485" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="483"/>
-      <c r="D63" s="483"/>
-      <c r="E63" s="483"/>
-      <c r="F63" s="483"/>
-      <c r="G63" s="483"/>
-      <c r="H63" s="483"/>
-      <c r="I63" s="483"/>
-      <c r="J63" s="483"/>
-      <c r="K63" s="332"/>
-      <c r="L63" s="332"/>
-      <c r="M63" s="332"/>
-      <c r="N63" s="332"/>
-      <c r="O63" s="332"/>
-      <c r="P63" s="332"/>
-      <c r="Q63" s="332"/>
-      <c r="R63" s="332"/>
-      <c r="S63" s="332"/>
-      <c r="T63" s="332"/>
-      <c r="U63" s="332"/>
-      <c r="V63" s="332"/>
-      <c r="W63" s="332"/>
-      <c r="X63" s="332"/>
-      <c r="Y63" s="332"/>
+      <c r="C63" s="485"/>
+      <c r="D63" s="485"/>
+      <c r="E63" s="485"/>
+      <c r="F63" s="485"/>
+      <c r="G63" s="485"/>
+      <c r="H63" s="485"/>
+      <c r="I63" s="485"/>
+      <c r="J63" s="485"/>
+      <c r="K63" s="331"/>
+      <c r="L63" s="331"/>
+      <c r="M63" s="331"/>
+      <c r="N63" s="331"/>
+      <c r="O63" s="331"/>
+      <c r="P63" s="331"/>
+      <c r="Q63" s="331"/>
+      <c r="R63" s="331"/>
+      <c r="S63" s="331"/>
+      <c r="T63" s="331"/>
+      <c r="U63" s="331"/>
+      <c r="V63" s="331"/>
+      <c r="W63" s="331"/>
+      <c r="X63" s="331"/>
+      <c r="Y63" s="331"/>
     </row>
     <row r="64" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="331" t="s">
+      <c r="A64" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="483" t="s">
+      <c r="B64" s="485" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="483"/>
-      <c r="D64" s="483"/>
-      <c r="E64" s="483"/>
-      <c r="F64" s="483"/>
-      <c r="G64" s="483"/>
-      <c r="H64" s="483"/>
-      <c r="I64" s="483"/>
-      <c r="J64" s="483"/>
-      <c r="K64" s="332"/>
-      <c r="L64" s="332"/>
-      <c r="M64" s="332"/>
-      <c r="N64" s="332"/>
-      <c r="O64" s="332"/>
-      <c r="P64" s="332"/>
-      <c r="Q64" s="332"/>
-      <c r="R64" s="332"/>
-      <c r="S64" s="332"/>
-      <c r="T64" s="332"/>
-      <c r="U64" s="332"/>
-      <c r="V64" s="332"/>
-      <c r="W64" s="332"/>
-      <c r="X64" s="332"/>
-      <c r="Y64" s="332"/>
+      <c r="C64" s="485"/>
+      <c r="D64" s="485"/>
+      <c r="E64" s="485"/>
+      <c r="F64" s="485"/>
+      <c r="G64" s="485"/>
+      <c r="H64" s="485"/>
+      <c r="I64" s="485"/>
+      <c r="J64" s="485"/>
+      <c r="K64" s="331"/>
+      <c r="L64" s="331"/>
+      <c r="M64" s="331"/>
+      <c r="N64" s="331"/>
+      <c r="O64" s="331"/>
+      <c r="P64" s="331"/>
+      <c r="Q64" s="331"/>
+      <c r="R64" s="331"/>
+      <c r="S64" s="331"/>
+      <c r="T64" s="331"/>
+      <c r="U64" s="331"/>
+      <c r="V64" s="331"/>
+      <c r="W64" s="331"/>
+      <c r="X64" s="331"/>
+      <c r="Y64" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10811,144 +10826,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="500" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="347"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="346"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="499" t="s">
+      <c r="A2" s="501" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
+      <c r="B2" s="501"/>
+      <c r="C2" s="501"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="348"/>
-      <c r="B3" s="348"/>
+      <c r="A3" s="347"/>
+      <c r="B3" s="347"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="J4" s="235"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="345"/>
+      <c r="G4" s="345"/>
+      <c r="J4" s="234"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="349" t="s">
+      <c r="A5" s="348" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="348"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
       <c r="H5" s="153"/>
       <c r="I5" s="153"/>
-      <c r="J5" s="347"/>
+      <c r="J5" s="346"/>
     </row>
     <row r="6" spans="1:10" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="237"/>
-      <c r="B6" s="348"/>
-      <c r="C6" s="348" t="s">
+      <c r="A6" s="236"/>
+      <c r="B6" s="347"/>
+      <c r="C6" s="347" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="346"/>
-      <c r="E6" s="346"/>
-      <c r="F6" s="346"/>
-      <c r="G6" s="346"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
       <c r="H6" s="153"/>
       <c r="I6" s="153"/>
-      <c r="J6" s="347"/>
+      <c r="J6" s="346"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="485" t="s">
+      <c r="A7" s="487" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="486"/>
-      <c r="C7" s="489" t="s">
+      <c r="B7" s="488"/>
+      <c r="C7" s="491" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="489" t="s">
+      <c r="D7" s="491" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="491" t="s">
+      <c r="E7" s="493" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="493" t="s">
+      <c r="F7" s="495" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="494"/>
-      <c r="H7" s="493" t="s">
+      <c r="G7" s="496"/>
+      <c r="H7" s="495" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="495"/>
-      <c r="J7" s="241" t="s">
+      <c r="I7" s="497"/>
+      <c r="J7" s="240" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="487"/>
-      <c r="B8" s="488"/>
-      <c r="C8" s="490"/>
-      <c r="D8" s="490"/>
-      <c r="E8" s="492"/>
-      <c r="F8" s="242" t="s">
+      <c r="A8" s="489"/>
+      <c r="B8" s="490"/>
+      <c r="C8" s="492"/>
+      <c r="D8" s="492"/>
+      <c r="E8" s="494"/>
+      <c r="F8" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="243" t="s">
+      <c r="G8" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="242" t="s">
+      <c r="H8" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="243" t="s">
+      <c r="I8" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="244" t="s">
+      <c r="J8" s="243" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="350"/>
-      <c r="B9" s="351"/>
-      <c r="C9" s="352" t="s">
+      <c r="A9" s="349"/>
+      <c r="B9" s="350"/>
+      <c r="C9" s="351" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="353"/>
-      <c r="E9" s="353"/>
-      <c r="F9" s="353"/>
-      <c r="G9" s="353"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="356"/>
+      <c r="D9" s="352"/>
+      <c r="E9" s="352"/>
+      <c r="F9" s="352"/>
+      <c r="G9" s="352"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="355"/>
     </row>
     <row r="10" spans="1:10" s="212" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="256"/>
-      <c r="B10" s="257"/>
+      <c r="A10" s="255"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="42" t="s">
         <v>193</v>
       </c>
@@ -10956,479 +10971,479 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="357"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="359"/>
+      <c r="H10" s="356"/>
+      <c r="I10" s="357"/>
+      <c r="J10" s="358"/>
     </row>
     <row r="11" spans="1:10" s="212" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="360">
+      <c r="A11" s="359">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="296"/>
-      <c r="C11" s="361" t="s">
+      <c r="B11" s="295"/>
+      <c r="C11" s="360" t="s">
         <v>194</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="357"/>
-      <c r="I11" s="358"/>
-      <c r="J11" s="359"/>
+      <c r="H11" s="356"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="358"/>
     </row>
     <row r="12" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="256"/>
-      <c r="B12" s="316" t="s">
+      <c r="A12" s="255"/>
+      <c r="B12" s="315" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="362" t="s">
+      <c r="C12" s="361" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="363" t="str">
+      <c r="D12" s="362" t="str">
         <f>IF(C12="","",IF(E12="","",IF(E12&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E12" s="364">
+      <c r="E12" s="363">
         <v>2</v>
       </c>
-      <c r="F12" s="363">
+      <c r="F12" s="362">
         <v>42000</v>
       </c>
-      <c r="G12" s="363">
+      <c r="G12" s="362">
         <f>F12*E12</f>
         <v>84000</v>
       </c>
-      <c r="H12" s="365">
+      <c r="H12" s="364">
         <v>10000</v>
       </c>
-      <c r="I12" s="366">
+      <c r="I12" s="365">
         <f>H12*E12</f>
         <v>20000</v>
       </c>
-      <c r="J12" s="367">
+      <c r="J12" s="366">
         <f>I12+G12</f>
         <v>104000</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="212" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="360">
+      <c r="A13" s="359">
         <f>A11+0.1</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="B13" s="368"/>
-      <c r="C13" s="361" t="s">
+      <c r="B13" s="367"/>
+      <c r="C13" s="360" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="369"/>
-      <c r="E13" s="370"/>
-      <c r="F13" s="369"/>
-      <c r="G13" s="369"/>
-      <c r="H13" s="371"/>
-      <c r="I13" s="372"/>
-      <c r="J13" s="373"/>
+      <c r="D13" s="368"/>
+      <c r="E13" s="369"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="370"/>
+      <c r="I13" s="371"/>
+      <c r="J13" s="372"/>
     </row>
     <row r="14" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="374"/>
-      <c r="B14" s="296" t="s">
+      <c r="A14" s="373"/>
+      <c r="B14" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="375" t="s">
+      <c r="C14" s="374" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="363" t="str">
+      <c r="D14" s="362" t="str">
         <f>IF(C14="","",IF(E14="","",IF(E14&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E14" s="364">
+      <c r="E14" s="363">
         <v>2</v>
       </c>
-      <c r="F14" s="363">
+      <c r="F14" s="362">
         <v>14500</v>
       </c>
-      <c r="G14" s="363">
+      <c r="G14" s="362">
         <f>F14*E14</f>
         <v>29000</v>
       </c>
-      <c r="H14" s="365">
+      <c r="H14" s="364">
         <v>2000</v>
       </c>
-      <c r="I14" s="366">
+      <c r="I14" s="365">
         <f>H14*E14</f>
         <v>4000</v>
       </c>
-      <c r="J14" s="367">
+      <c r="J14" s="366">
         <f>I14+G14</f>
         <v>33000</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="212" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="360">
+      <c r="A15" s="359">
         <f>A13+0.1</f>
         <v>1.3000000000000003</v>
       </c>
-      <c r="B15" s="368"/>
-      <c r="C15" s="361" t="s">
+      <c r="B15" s="367"/>
+      <c r="C15" s="360" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="369"/>
-      <c r="E15" s="370"/>
-      <c r="F15" s="369"/>
-      <c r="G15" s="369"/>
-      <c r="H15" s="371"/>
-      <c r="I15" s="372"/>
-      <c r="J15" s="373"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="369"/>
+      <c r="F15" s="368"/>
+      <c r="G15" s="368"/>
+      <c r="H15" s="370"/>
+      <c r="I15" s="371"/>
+      <c r="J15" s="372"/>
     </row>
     <row r="16" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="360"/>
-      <c r="B16" s="376" t="s">
+      <c r="A16" s="359"/>
+      <c r="B16" s="375" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="362" t="s">
+      <c r="C16" s="361" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="363" t="str">
+      <c r="D16" s="362" t="str">
         <f>IF(C16="","",IF(E16="","",IF(E16&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E16" s="364">
+      <c r="E16" s="363">
         <v>2</v>
       </c>
-      <c r="F16" s="363">
+      <c r="F16" s="362">
         <v>32000</v>
       </c>
-      <c r="G16" s="363">
+      <c r="G16" s="362">
         <f>F16*E16</f>
         <v>64000</v>
       </c>
-      <c r="H16" s="365">
+      <c r="H16" s="364">
         <v>8000</v>
       </c>
-      <c r="I16" s="366">
+      <c r="I16" s="365">
         <f>H16*E16</f>
         <v>16000</v>
       </c>
-      <c r="J16" s="367">
+      <c r="J16" s="366">
         <f>I16+G16</f>
         <v>80000</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="377">
+      <c r="A17" s="376">
         <f>A15+0.1</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="B17" s="368"/>
-      <c r="C17" s="378" t="s">
+      <c r="B17" s="367"/>
+      <c r="C17" s="377" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="379"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="381"/>
-      <c r="I17" s="382"/>
-      <c r="J17" s="383"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="378"/>
+      <c r="G17" s="378"/>
+      <c r="H17" s="380"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="382"/>
     </row>
     <row r="18" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="256"/>
-      <c r="B18" s="376" t="s">
+      <c r="A18" s="255"/>
+      <c r="B18" s="375" t="s">
         <v>123</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="363" t="str">
+      <c r="D18" s="362" t="str">
         <f>IF(C18="","",IF(E18="","",IF(E18&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E18" s="364">
+      <c r="E18" s="363">
         <v>2</v>
       </c>
-      <c r="F18" s="363">
+      <c r="F18" s="362">
         <v>27000</v>
       </c>
-      <c r="G18" s="363">
+      <c r="G18" s="362">
         <f>F18*E18</f>
         <v>54000</v>
       </c>
-      <c r="H18" s="365">
+      <c r="H18" s="364">
         <v>7000</v>
       </c>
-      <c r="I18" s="366">
+      <c r="I18" s="365">
         <f>H18*E18</f>
         <v>14000</v>
       </c>
-      <c r="J18" s="367">
+      <c r="J18" s="366">
         <f>I18+G18</f>
         <v>68000</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="212" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="377">
+      <c r="A19" s="376">
         <f>A17+0.1</f>
         <v>1.5000000000000004</v>
       </c>
-      <c r="B19" s="376"/>
-      <c r="C19" s="267" t="s">
+      <c r="B19" s="375"/>
+      <c r="C19" s="266" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="379" t="str">
+      <c r="D19" s="378" t="str">
         <f>IF(C19="","",IF(E19="","",IF(E19&gt;1,"Nos.","No.")))</f>
         <v/>
       </c>
-      <c r="E19" s="380"/>
-      <c r="F19" s="379"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="381"/>
-      <c r="I19" s="382"/>
-      <c r="J19" s="383"/>
+      <c r="E19" s="379"/>
+      <c r="F19" s="378"/>
+      <c r="G19" s="378"/>
+      <c r="H19" s="380"/>
+      <c r="I19" s="381"/>
+      <c r="J19" s="382"/>
     </row>
     <row r="20" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="384"/>
-      <c r="B20" s="385" t="s">
+      <c r="A20" s="383"/>
+      <c r="B20" s="384" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="362" t="s">
+      <c r="C20" s="361" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="363" t="str">
+      <c r="D20" s="362" t="str">
         <f>IF(C20="","",IF(E20="","",IF(E20&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E20" s="364">
+      <c r="E20" s="363">
         <v>3</v>
       </c>
-      <c r="F20" s="363">
+      <c r="F20" s="362">
         <v>49500</v>
       </c>
-      <c r="G20" s="363">
+      <c r="G20" s="362">
         <f>F20*E20</f>
         <v>148500</v>
       </c>
-      <c r="H20" s="365">
+      <c r="H20" s="364">
         <v>7500</v>
       </c>
-      <c r="I20" s="366">
+      <c r="I20" s="365">
         <f>H20*E20</f>
         <v>22500</v>
       </c>
-      <c r="J20" s="367">
+      <c r="J20" s="366">
         <f>I20+G20</f>
         <v>171000</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="377">
+      <c r="A21" s="376">
         <f>A19+0.1</f>
         <v>1.6000000000000005</v>
       </c>
-      <c r="B21" s="376"/>
-      <c r="C21" s="361" t="s">
+      <c r="B21" s="375"/>
+      <c r="C21" s="360" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="369"/>
-      <c r="E21" s="370"/>
-      <c r="F21" s="369"/>
-      <c r="G21" s="369"/>
-      <c r="H21" s="371"/>
-      <c r="I21" s="372"/>
-      <c r="J21" s="373"/>
+      <c r="D21" s="368"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="368"/>
+      <c r="H21" s="370"/>
+      <c r="I21" s="371"/>
+      <c r="J21" s="372"/>
     </row>
     <row r="22" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="256"/>
-      <c r="B22" s="316" t="s">
+      <c r="A22" s="255"/>
+      <c r="B22" s="315" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="386" t="s">
+      <c r="C22" s="385" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="303" t="str">
+      <c r="D22" s="302" t="str">
         <f>IF(C22="","",IF(E22="","",IF(E22&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E22" s="303">
+      <c r="E22" s="302">
         <v>3</v>
       </c>
-      <c r="F22" s="363">
+      <c r="F22" s="362">
         <v>37250</v>
       </c>
-      <c r="G22" s="363">
+      <c r="G22" s="362">
         <f>F22*E22</f>
         <v>111750</v>
       </c>
-      <c r="H22" s="365">
+      <c r="H22" s="364">
         <v>1000</v>
       </c>
-      <c r="I22" s="366">
+      <c r="I22" s="365">
         <f>H22*E22</f>
         <v>3000</v>
       </c>
-      <c r="J22" s="367">
+      <c r="J22" s="366">
         <f>I22+G22</f>
         <v>114750</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="212" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="377">
+      <c r="A23" s="376">
         <f>A21+0.1</f>
         <v>1.7000000000000006</v>
       </c>
-      <c r="B23" s="387"/>
-      <c r="C23" s="388" t="s">
+      <c r="B23" s="386"/>
+      <c r="C23" s="387" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="363" t="str">
+      <c r="D23" s="362" t="str">
         <f>IF(C23="","",IF(E23="","",IF(E23&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E23" s="364">
+      <c r="E23" s="363">
         <v>3</v>
       </c>
-      <c r="F23" s="363">
+      <c r="F23" s="362">
         <v>175000</v>
       </c>
-      <c r="G23" s="363">
+      <c r="G23" s="362">
         <f>F23*E23</f>
         <v>525000</v>
       </c>
-      <c r="H23" s="365">
+      <c r="H23" s="364">
         <v>10000</v>
       </c>
-      <c r="I23" s="366">
+      <c r="I23" s="365">
         <f>H23*E23</f>
         <v>30000</v>
       </c>
-      <c r="J23" s="367">
+      <c r="J23" s="366">
         <f>I23+G23</f>
         <v>555000</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="212" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="389">
+      <c r="A24" s="388">
         <f>A23+0.1</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="B24" s="390"/>
-      <c r="C24" s="391" t="s">
+      <c r="B24" s="389"/>
+      <c r="C24" s="390" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="392" t="str">
+      <c r="D24" s="391" t="str">
         <f>IF(C24="","",IF(E24="","",IF(E24&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E24" s="393">
+      <c r="E24" s="392">
         <v>1</v>
       </c>
-      <c r="F24" s="392">
+      <c r="F24" s="391">
         <v>215000</v>
       </c>
-      <c r="G24" s="392">
+      <c r="G24" s="391">
         <f>F24*E24</f>
         <v>215000</v>
       </c>
-      <c r="H24" s="394">
+      <c r="H24" s="393">
         <v>20000</v>
       </c>
-      <c r="I24" s="395">
+      <c r="I24" s="394">
         <f>H24*E24</f>
         <v>20000</v>
       </c>
-      <c r="J24" s="396">
+      <c r="J24" s="395">
         <f>I24+G24</f>
         <v>235000</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="377">
+      <c r="A25" s="376">
         <f>A24+0.1</f>
         <v>1.9000000000000008</v>
       </c>
-      <c r="B25" s="376"/>
-      <c r="C25" s="258" t="s">
+      <c r="B25" s="375"/>
+      <c r="C25" s="257" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="369"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="369"/>
-      <c r="G25" s="369"/>
-      <c r="H25" s="371"/>
-      <c r="I25" s="372"/>
-      <c r="J25" s="373"/>
+      <c r="D25" s="368"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="368"/>
+      <c r="G25" s="368"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="371"/>
+      <c r="J25" s="372"/>
     </row>
     <row r="26" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="384"/>
-      <c r="B26" s="387" t="s">
+      <c r="A26" s="383"/>
+      <c r="B26" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="375" t="s">
+      <c r="C26" s="374" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="363" t="str">
+      <c r="D26" s="362" t="str">
         <f>IF(C26="","",IF(E26="","",IF(E26&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E26" s="364">
+      <c r="E26" s="363">
         <v>2</v>
       </c>
-      <c r="F26" s="363">
+      <c r="F26" s="362">
         <v>5000</v>
       </c>
-      <c r="G26" s="363">
+      <c r="G26" s="362">
         <f>F26*E26</f>
         <v>10000</v>
       </c>
-      <c r="H26" s="365">
+      <c r="H26" s="364">
         <v>1000</v>
       </c>
-      <c r="I26" s="366">
+      <c r="I26" s="365">
         <f>H26*E26</f>
         <v>2000</v>
       </c>
-      <c r="J26" s="367">
+      <c r="J26" s="366">
         <f>I26+G26</f>
         <v>12000</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="374"/>
-      <c r="B27" s="387" t="s">
+      <c r="A27" s="373"/>
+      <c r="B27" s="386" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="397" t="s">
+      <c r="C27" s="396" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="398" t="str">
+      <c r="D27" s="397" t="str">
         <f>IF(C27="","",IF(E27="","",IF(E27&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E27" s="399">
+      <c r="E27" s="398">
         <v>2</v>
       </c>
-      <c r="F27" s="363">
+      <c r="F27" s="362">
         <v>7500</v>
       </c>
-      <c r="G27" s="363">
+      <c r="G27" s="362">
         <f>F27*E27</f>
         <v>15000</v>
       </c>
-      <c r="H27" s="365">
+      <c r="H27" s="364">
         <v>1000</v>
       </c>
-      <c r="I27" s="366">
+      <c r="I27" s="365">
         <f>H27*E27</f>
         <v>2000</v>
       </c>
-      <c r="J27" s="367">
+      <c r="J27" s="366">
         <f>I27+G27</f>
         <v>17000</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="374"/>
-      <c r="B28" s="400" t="s">
+      <c r="A28" s="373"/>
+      <c r="B28" s="399" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="401" t="s">
+      <c r="C28" s="400" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="68" t="str">
@@ -11438,1288 +11453,1288 @@
       <c r="E28" s="68">
         <v>2</v>
       </c>
-      <c r="F28" s="363">
+      <c r="F28" s="362">
         <v>8500</v>
       </c>
-      <c r="G28" s="363">
+      <c r="G28" s="362">
         <f>F28*E28</f>
         <v>17000</v>
       </c>
-      <c r="H28" s="365">
+      <c r="H28" s="364">
         <v>1000</v>
       </c>
-      <c r="I28" s="366">
+      <c r="I28" s="365">
         <f>H28*E28</f>
         <v>2000</v>
       </c>
-      <c r="J28" s="367">
+      <c r="J28" s="366">
         <f>I28+G28</f>
         <v>19000</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="374"/>
-      <c r="B29" s="387" t="s">
+      <c r="A29" s="373"/>
+      <c r="B29" s="386" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="397" t="s">
+      <c r="C29" s="396" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="398" t="str">
+      <c r="D29" s="397" t="str">
         <f>IF(C29="","",IF(E29="","",IF(E29&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E29" s="399">
+      <c r="E29" s="398">
         <v>4</v>
       </c>
-      <c r="F29" s="363">
+      <c r="F29" s="362">
         <v>3500</v>
       </c>
-      <c r="G29" s="363">
+      <c r="G29" s="362">
         <f>F29*E29</f>
         <v>14000</v>
       </c>
-      <c r="H29" s="365">
+      <c r="H29" s="364">
         <v>1000</v>
       </c>
-      <c r="I29" s="366">
+      <c r="I29" s="365">
         <f>H29*E29</f>
         <v>4000</v>
       </c>
-      <c r="J29" s="367">
+      <c r="J29" s="366">
         <f>I29+G29</f>
         <v>18000</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="212" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="402"/>
-      <c r="B30" s="403" t="s">
+      <c r="A30" s="401"/>
+      <c r="B30" s="402" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="404" t="s">
+      <c r="C30" s="403" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="405" t="str">
+      <c r="D30" s="404" t="str">
         <f>IF(C30="","",IF(E30="","",IF(E30&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E30" s="406">
+      <c r="E30" s="405">
         <v>2</v>
       </c>
-      <c r="F30" s="392">
+      <c r="F30" s="391">
         <v>27500</v>
       </c>
-      <c r="G30" s="392">
+      <c r="G30" s="391">
         <f>F30*E30</f>
         <v>55000</v>
       </c>
-      <c r="H30" s="394">
+      <c r="H30" s="393">
         <v>3000</v>
       </c>
-      <c r="I30" s="395">
+      <c r="I30" s="394">
         <f>H30*E30</f>
         <v>6000</v>
       </c>
-      <c r="J30" s="396">
+      <c r="J30" s="395">
         <f>I30+G30</f>
         <v>61000</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="407"/>
-      <c r="B31" s="408"/>
-      <c r="C31" s="409" t="s">
+      <c r="A31" s="406"/>
+      <c r="B31" s="407"/>
+      <c r="C31" s="408" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="410"/>
-      <c r="E31" s="411"/>
-      <c r="F31" s="411"/>
-      <c r="G31" s="412">
+      <c r="D31" s="409"/>
+      <c r="E31" s="410"/>
+      <c r="F31" s="410"/>
+      <c r="G31" s="411">
         <f>SUM(G12:G30)</f>
         <v>1342250</v>
       </c>
-      <c r="H31" s="413"/>
-      <c r="I31" s="412">
+      <c r="H31" s="412"/>
+      <c r="I31" s="411">
         <f>SUM(I12:I30)</f>
         <v>145500</v>
       </c>
-      <c r="J31" s="412">
+      <c r="J31" s="411">
         <f>SUM(J12:J30)</f>
         <v>1487750</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="414"/>
-      <c r="B32" s="415"/>
-      <c r="C32" s="416" t="s">
+      <c r="A32" s="413"/>
+      <c r="B32" s="414"/>
+      <c r="C32" s="415" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="417"/>
-      <c r="E32" s="417"/>
-      <c r="F32" s="417"/>
-      <c r="G32" s="417"/>
-      <c r="H32" s="418"/>
-      <c r="I32" s="419"/>
-      <c r="J32" s="420"/>
+      <c r="D32" s="416"/>
+      <c r="E32" s="416"/>
+      <c r="F32" s="416"/>
+      <c r="G32" s="416"/>
+      <c r="H32" s="417"/>
+      <c r="I32" s="418"/>
+      <c r="J32" s="419"/>
     </row>
     <row r="33" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
-      <c r="B33" s="266"/>
+      <c r="B33" s="265"/>
       <c r="C33" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="369"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="369"/>
-      <c r="G33" s="369"/>
-      <c r="H33" s="421"/>
-      <c r="I33" s="422"/>
-      <c r="J33" s="423"/>
+      <c r="D33" s="368"/>
+      <c r="E33" s="368"/>
+      <c r="F33" s="368"/>
+      <c r="G33" s="368"/>
+      <c r="H33" s="420"/>
+      <c r="I33" s="421"/>
+      <c r="J33" s="422"/>
     </row>
     <row r="34" spans="1:12" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="256">
+      <c r="A34" s="255">
         <v>2.1</v>
       </c>
-      <c r="B34" s="257"/>
-      <c r="C34" s="361" t="s">
+      <c r="B34" s="256"/>
+      <c r="C34" s="360" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="369"/>
-      <c r="E34" s="369"/>
-      <c r="F34" s="369"/>
-      <c r="G34" s="369"/>
-      <c r="H34" s="421"/>
-      <c r="I34" s="422"/>
-      <c r="J34" s="423"/>
+      <c r="D34" s="368"/>
+      <c r="E34" s="368"/>
+      <c r="F34" s="368"/>
+      <c r="G34" s="368"/>
+      <c r="H34" s="420"/>
+      <c r="I34" s="421"/>
+      <c r="J34" s="422"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="256"/>
-      <c r="B35" s="387" t="s">
+      <c r="A35" s="255"/>
+      <c r="B35" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="424" t="s">
+      <c r="C35" s="423" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="363" t="s">
+      <c r="D35" s="362" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="364">
+      <c r="E35" s="363">
         <v>260</v>
       </c>
-      <c r="F35" s="363">
+      <c r="F35" s="362">
         <v>350</v>
       </c>
-      <c r="G35" s="363">
+      <c r="G35" s="362">
         <f>F35*E35</f>
         <v>91000</v>
       </c>
-      <c r="H35" s="365">
+      <c r="H35" s="364">
         <v>100</v>
       </c>
-      <c r="I35" s="366">
+      <c r="I35" s="365">
         <f>H35*E35</f>
         <v>26000</v>
       </c>
-      <c r="J35" s="367">
+      <c r="J35" s="366">
         <f>I35+G35</f>
         <v>117000</v>
       </c>
-      <c r="L35" s="425"/>
+      <c r="L35" s="424"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="256"/>
-      <c r="B36" s="387" t="s">
+      <c r="A36" s="255"/>
+      <c r="B36" s="386" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="401" t="s">
+      <c r="C36" s="400" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="398" t="s">
+      <c r="D36" s="397" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="399">
+      <c r="E36" s="398">
         <v>100</v>
       </c>
-      <c r="F36" s="363">
+      <c r="F36" s="362">
         <v>515</v>
       </c>
-      <c r="G36" s="363">
+      <c r="G36" s="362">
         <f>F36*E36</f>
         <v>51500</v>
       </c>
-      <c r="H36" s="365">
+      <c r="H36" s="364">
         <v>100</v>
       </c>
-      <c r="I36" s="366">
+      <c r="I36" s="365">
         <f>H36*E36</f>
         <v>10000</v>
       </c>
-      <c r="J36" s="367">
+      <c r="J36" s="366">
         <f>I36+G36</f>
         <v>61500</v>
       </c>
-      <c r="L36" s="425"/>
+      <c r="L36" s="424"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="256"/>
-      <c r="B37" s="387" t="s">
+      <c r="A37" s="255"/>
+      <c r="B37" s="386" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="401" t="s">
+      <c r="C37" s="400" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="363" t="s">
+      <c r="D37" s="362" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="399">
+      <c r="E37" s="398">
         <v>30</v>
       </c>
-      <c r="F37" s="363">
+      <c r="F37" s="362">
         <v>750</v>
       </c>
-      <c r="G37" s="363">
+      <c r="G37" s="362">
         <f>F37*E37</f>
         <v>22500</v>
       </c>
-      <c r="H37" s="365">
+      <c r="H37" s="364">
         <v>125</v>
       </c>
-      <c r="I37" s="366">
+      <c r="I37" s="365">
         <f>H37*E37</f>
         <v>3750</v>
       </c>
-      <c r="J37" s="367">
+      <c r="J37" s="366">
         <f>I37+G37</f>
         <v>26250</v>
       </c>
-      <c r="L37" s="425"/>
+      <c r="L37" s="424"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="360">
+      <c r="A38" s="359">
         <f>A34+0.1</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="B38" s="257"/>
-      <c r="C38" s="426" t="s">
+      <c r="B38" s="256"/>
+      <c r="C38" s="425" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="369"/>
-      <c r="E38" s="370"/>
-      <c r="F38" s="369"/>
-      <c r="G38" s="369"/>
-      <c r="H38" s="421"/>
-      <c r="I38" s="422"/>
-      <c r="J38" s="423"/>
+      <c r="D38" s="368"/>
+      <c r="E38" s="369"/>
+      <c r="F38" s="368"/>
+      <c r="G38" s="368"/>
+      <c r="H38" s="420"/>
+      <c r="I38" s="421"/>
+      <c r="J38" s="422"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="256"/>
-      <c r="B39" s="400" t="s">
+      <c r="A39" s="255"/>
+      <c r="B39" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="427" t="s">
+      <c r="C39" s="426" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="363" t="str">
+      <c r="D39" s="362" t="str">
         <f>IF(C39="","",IF(E39="","",IF(E39&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E39" s="364">
+      <c r="E39" s="363">
         <v>5</v>
       </c>
-      <c r="F39" s="363">
+      <c r="F39" s="362">
         <v>5500</v>
       </c>
-      <c r="G39" s="363">
+      <c r="G39" s="362">
         <f>F39*E39</f>
         <v>27500</v>
       </c>
-      <c r="H39" s="365">
+      <c r="H39" s="364">
         <v>1000</v>
       </c>
-      <c r="I39" s="366">
+      <c r="I39" s="365">
         <f>H39*E39</f>
         <v>5000</v>
       </c>
-      <c r="J39" s="367">
+      <c r="J39" s="366">
         <f>I39+G39</f>
         <v>32500</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="256"/>
-      <c r="B40" s="400" t="s">
+      <c r="A40" s="255"/>
+      <c r="B40" s="399" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="428" t="s">
+      <c r="C40" s="427" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="398" t="str">
+      <c r="D40" s="397" t="str">
         <f>IF(C40="","",IF(E40="","",IF(E40&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E40" s="399">
+      <c r="E40" s="398">
         <v>1</v>
       </c>
-      <c r="F40" s="392">
+      <c r="F40" s="391">
         <v>9000</v>
       </c>
-      <c r="G40" s="392">
+      <c r="G40" s="391">
         <f>F40*E40</f>
         <v>9000</v>
       </c>
-      <c r="H40" s="365">
+      <c r="H40" s="364">
         <v>1000</v>
       </c>
-      <c r="I40" s="395">
+      <c r="I40" s="394">
         <f>H40*E40</f>
         <v>1000</v>
       </c>
-      <c r="J40" s="396">
+      <c r="J40" s="395">
         <f>I40+G40</f>
         <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="407"/>
-      <c r="B41" s="408"/>
-      <c r="C41" s="409" t="s">
+      <c r="A41" s="406"/>
+      <c r="B41" s="407"/>
+      <c r="C41" s="408" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="429"/>
-      <c r="E41" s="430"/>
-      <c r="F41" s="411"/>
-      <c r="G41" s="412">
+      <c r="D41" s="428"/>
+      <c r="E41" s="429"/>
+      <c r="F41" s="410"/>
+      <c r="G41" s="411">
         <f>SUM(G34:G40)</f>
         <v>201500</v>
       </c>
-      <c r="H41" s="429"/>
-      <c r="I41" s="412">
+      <c r="H41" s="428"/>
+      <c r="I41" s="411">
         <f>SUM(I34:I40)</f>
         <v>45750</v>
       </c>
-      <c r="J41" s="412">
+      <c r="J41" s="411">
         <f>SUM(J34:J40)</f>
         <v>247250</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
-      <c r="B42" s="266"/>
-      <c r="C42" s="431" t="s">
+      <c r="B42" s="265"/>
+      <c r="C42" s="430" t="s">
         <v>223</v>
       </c>
-      <c r="D42" s="369"/>
-      <c r="E42" s="369"/>
-      <c r="F42" s="369"/>
-      <c r="G42" s="369"/>
-      <c r="H42" s="421"/>
-      <c r="I42" s="422"/>
-      <c r="J42" s="423"/>
+      <c r="D42" s="368"/>
+      <c r="E42" s="368"/>
+      <c r="F42" s="368"/>
+      <c r="G42" s="368"/>
+      <c r="H42" s="420"/>
+      <c r="I42" s="421"/>
+      <c r="J42" s="422"/>
     </row>
     <row r="43" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
-      <c r="B43" s="266"/>
-      <c r="C43" s="324" t="s">
+      <c r="B43" s="265"/>
+      <c r="C43" s="323" t="s">
         <v>224</v>
       </c>
-      <c r="D43" s="369"/>
-      <c r="E43" s="369"/>
-      <c r="F43" s="369"/>
-      <c r="G43" s="369"/>
-      <c r="H43" s="421"/>
-      <c r="I43" s="422"/>
-      <c r="J43" s="423"/>
-    </row>
-    <row r="44" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="256">
+      <c r="D43" s="368"/>
+      <c r="E43" s="368"/>
+      <c r="F43" s="368"/>
+      <c r="G43" s="368"/>
+      <c r="H43" s="420"/>
+      <c r="I43" s="421"/>
+      <c r="J43" s="422"/>
+    </row>
+    <row r="44" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="255">
         <v>3.1</v>
       </c>
-      <c r="B44" s="257"/>
-      <c r="C44" s="258" t="s">
+      <c r="B44" s="256"/>
+      <c r="C44" s="257" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="369"/>
-      <c r="E44" s="369"/>
-      <c r="F44" s="369"/>
-      <c r="G44" s="369"/>
-      <c r="H44" s="421"/>
-      <c r="I44" s="422"/>
-      <c r="J44" s="423"/>
+      <c r="D44" s="368"/>
+      <c r="E44" s="368"/>
+      <c r="F44" s="368"/>
+      <c r="G44" s="368"/>
+      <c r="H44" s="420"/>
+      <c r="I44" s="421"/>
+      <c r="J44" s="422"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="256"/>
-      <c r="B45" s="387" t="s">
+      <c r="A45" s="255"/>
+      <c r="B45" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="427" t="s">
+      <c r="C45" s="426" t="s">
         <v>226</v>
       </c>
-      <c r="D45" s="363" t="s">
+      <c r="D45" s="362" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="364">
+      <c r="E45" s="363">
         <v>20</v>
       </c>
-      <c r="F45" s="363">
+      <c r="F45" s="362">
         <v>400</v>
       </c>
-      <c r="G45" s="363">
+      <c r="G45" s="362">
         <f>F45*E45</f>
         <v>8000</v>
       </c>
-      <c r="H45" s="365">
+      <c r="H45" s="364">
         <v>100</v>
       </c>
-      <c r="I45" s="366">
+      <c r="I45" s="365">
         <f>H45*E45</f>
         <v>2000</v>
       </c>
-      <c r="J45" s="367">
+      <c r="J45" s="366">
         <f>I45+G45</f>
         <v>10000</v>
       </c>
-      <c r="L45" s="425"/>
+      <c r="L45" s="424"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="256"/>
-      <c r="B46" s="387" t="s">
+      <c r="A46" s="255"/>
+      <c r="B46" s="386" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="427" t="s">
+      <c r="C46" s="426" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="363" t="s">
+      <c r="D46" s="362" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="364">
+      <c r="E46" s="363">
         <v>160</v>
       </c>
-      <c r="F46" s="363">
+      <c r="F46" s="362">
         <v>650</v>
       </c>
-      <c r="G46" s="363">
+      <c r="G46" s="362">
         <f>F46*E46</f>
         <v>104000</v>
       </c>
-      <c r="H46" s="365">
+      <c r="H46" s="364">
         <v>150</v>
       </c>
-      <c r="I46" s="366">
+      <c r="I46" s="365">
         <f>H46*E46</f>
         <v>24000</v>
       </c>
-      <c r="J46" s="367">
+      <c r="J46" s="366">
         <f>I46+G46</f>
         <v>128000</v>
       </c>
-      <c r="L46" s="425"/>
+      <c r="L46" s="424"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="256"/>
-      <c r="B47" s="387" t="s">
+      <c r="A47" s="255"/>
+      <c r="B47" s="386" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="428" t="s">
+      <c r="C47" s="427" t="s">
         <v>228</v>
       </c>
-      <c r="D47" s="398" t="s">
+      <c r="D47" s="397" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="399">
+      <c r="E47" s="398">
         <v>120</v>
       </c>
-      <c r="F47" s="363">
+      <c r="F47" s="362">
         <v>1450</v>
       </c>
-      <c r="G47" s="363">
+      <c r="G47" s="362">
         <f>F47*E47</f>
         <v>174000</v>
       </c>
-      <c r="H47" s="365">
+      <c r="H47" s="364">
         <v>200</v>
       </c>
-      <c r="I47" s="366">
+      <c r="I47" s="365">
         <f>H47*E47</f>
         <v>24000</v>
       </c>
-      <c r="J47" s="367">
+      <c r="J47" s="366">
         <f>I47+G47</f>
         <v>198000</v>
       </c>
-      <c r="L47" s="425"/>
+      <c r="L47" s="424"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="256"/>
-      <c r="B48" s="387" t="s">
+      <c r="A48" s="255"/>
+      <c r="B48" s="386" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="428" t="s">
+      <c r="C48" s="427" t="s">
         <v>229</v>
       </c>
-      <c r="D48" s="398" t="s">
+      <c r="D48" s="397" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="399">
+      <c r="E48" s="398">
         <v>30</v>
       </c>
-      <c r="F48" s="363">
+      <c r="F48" s="362">
         <v>1800</v>
       </c>
-      <c r="G48" s="363">
+      <c r="G48" s="362">
         <f>F48*E48</f>
         <v>54000</v>
       </c>
-      <c r="H48" s="365">
+      <c r="H48" s="364">
         <v>300</v>
       </c>
-      <c r="I48" s="366">
+      <c r="I48" s="365">
         <f>H48*E48</f>
         <v>9000</v>
       </c>
-      <c r="J48" s="367">
+      <c r="J48" s="366">
         <f>I48+G48</f>
         <v>63000</v>
       </c>
-      <c r="L48" s="425"/>
+      <c r="L48" s="424"/>
     </row>
     <row r="49" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="256">
+      <c r="A49" s="255">
         <f>A44+0.1</f>
         <v>3.2</v>
       </c>
-      <c r="B49" s="257"/>
-      <c r="C49" s="432" t="s">
+      <c r="B49" s="256"/>
+      <c r="C49" s="431" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="369"/>
-      <c r="E49" s="370"/>
-      <c r="F49" s="369"/>
-      <c r="G49" s="369"/>
-      <c r="H49" s="433"/>
-      <c r="I49" s="434"/>
-      <c r="J49" s="423"/>
+      <c r="D49" s="368"/>
+      <c r="E49" s="369"/>
+      <c r="F49" s="368"/>
+      <c r="G49" s="368"/>
+      <c r="H49" s="432"/>
+      <c r="I49" s="433"/>
+      <c r="J49" s="422"/>
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="400" t="s">
+      <c r="B50" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="435" t="s">
+      <c r="C50" s="434" t="s">
         <v>231</v>
       </c>
-      <c r="D50" s="363" t="str">
+      <c r="D50" s="362" t="str">
         <f>IF(C50="","",IF(E50="","",IF(E50&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E50" s="364">
+      <c r="E50" s="363">
         <v>8</v>
       </c>
-      <c r="F50" s="363">
+      <c r="F50" s="362">
         <v>8000</v>
       </c>
-      <c r="G50" s="363">
+      <c r="G50" s="362">
         <f>F50*E50</f>
         <v>64000</v>
       </c>
-      <c r="H50" s="365">
+      <c r="H50" s="364">
         <v>1000</v>
       </c>
-      <c r="I50" s="366">
+      <c r="I50" s="365">
         <f>H50*E50</f>
         <v>8000</v>
       </c>
-      <c r="J50" s="367">
+      <c r="J50" s="366">
         <f>I50+G50</f>
         <v>72000</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="400" t="s">
+      <c r="B51" s="399" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="436" t="s">
+      <c r="C51" s="435" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="398" t="str">
+      <c r="D51" s="397" t="str">
         <f>IF(C51="","",IF(E51="","",IF(E51&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E51" s="399">
+      <c r="E51" s="398">
         <v>3</v>
       </c>
-      <c r="F51" s="363">
+      <c r="F51" s="362">
         <v>8000</v>
       </c>
-      <c r="G51" s="363">
+      <c r="G51" s="362">
         <f>F51*E51</f>
         <v>24000</v>
       </c>
-      <c r="H51" s="365">
+      <c r="H51" s="364">
         <v>1000</v>
       </c>
-      <c r="I51" s="366">
+      <c r="I51" s="365">
         <f>H51*E51</f>
         <v>3000</v>
       </c>
-      <c r="J51" s="367">
+      <c r="J51" s="366">
         <f>I51+G51</f>
         <v>27000</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="256">
+      <c r="A52" s="255">
         <f>A49+0.1</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="B52" s="296"/>
-      <c r="C52" s="437" t="s">
+      <c r="B52" s="295"/>
+      <c r="C52" s="436" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="369"/>
-      <c r="E52" s="370"/>
-      <c r="F52" s="369"/>
-      <c r="G52" s="369"/>
-      <c r="H52" s="421"/>
-      <c r="I52" s="422"/>
-      <c r="J52" s="423"/>
+      <c r="D52" s="368"/>
+      <c r="E52" s="369"/>
+      <c r="F52" s="368"/>
+      <c r="G52" s="368"/>
+      <c r="H52" s="420"/>
+      <c r="I52" s="421"/>
+      <c r="J52" s="422"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="256"/>
-      <c r="B53" s="400" t="s">
+      <c r="A53" s="255"/>
+      <c r="B53" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="427" t="s">
+      <c r="C53" s="426" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="363" t="s">
+      <c r="D53" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="364">
+      <c r="E53" s="363">
         <v>1</v>
       </c>
-      <c r="F53" s="363">
+      <c r="F53" s="362">
         <v>9000</v>
       </c>
-      <c r="G53" s="363">
+      <c r="G53" s="362">
         <f>F53*E53</f>
         <v>9000</v>
       </c>
-      <c r="H53" s="365">
+      <c r="H53" s="364">
         <v>1000</v>
       </c>
-      <c r="I53" s="366">
+      <c r="I53" s="365">
         <f>H53*E53</f>
         <v>1000</v>
       </c>
-      <c r="J53" s="367">
+      <c r="J53" s="366">
         <f>I53+G53</f>
         <v>10000</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="256"/>
-      <c r="B54" s="400" t="s">
+      <c r="A54" s="255"/>
+      <c r="B54" s="399" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="427" t="s">
+      <c r="C54" s="426" t="s">
         <v>235</v>
       </c>
-      <c r="D54" s="363" t="s">
+      <c r="D54" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="364">
+      <c r="E54" s="363">
         <v>2</v>
       </c>
-      <c r="F54" s="363">
+      <c r="F54" s="362">
         <v>8750</v>
       </c>
-      <c r="G54" s="363">
+      <c r="G54" s="362">
         <f>F54*E54</f>
         <v>17500</v>
       </c>
-      <c r="H54" s="365">
+      <c r="H54" s="364">
         <v>1000</v>
       </c>
-      <c r="I54" s="366">
+      <c r="I54" s="365">
         <f>H54*E54</f>
         <v>2000</v>
       </c>
-      <c r="J54" s="367">
+      <c r="J54" s="366">
         <f>I54+G54</f>
         <v>19500</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="256">
+      <c r="A55" s="255">
         <f>A52+0.1</f>
         <v>3.4000000000000004</v>
       </c>
-      <c r="B55" s="296"/>
-      <c r="C55" s="361" t="s">
+      <c r="B55" s="295"/>
+      <c r="C55" s="360" t="s">
         <v>236</v>
       </c>
-      <c r="D55" s="369"/>
-      <c r="E55" s="370"/>
-      <c r="F55" s="369"/>
-      <c r="G55" s="369"/>
-      <c r="H55" s="421"/>
-      <c r="I55" s="422"/>
-      <c r="J55" s="423"/>
+      <c r="D55" s="368"/>
+      <c r="E55" s="369"/>
+      <c r="F55" s="368"/>
+      <c r="G55" s="368"/>
+      <c r="H55" s="420"/>
+      <c r="I55" s="421"/>
+      <c r="J55" s="422"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="256"/>
-      <c r="B56" s="387" t="s">
+      <c r="A56" s="255"/>
+      <c r="B56" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="427" t="s">
+      <c r="C56" s="426" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="363" t="str">
+      <c r="D56" s="362" t="str">
         <f>IF(C56="","",IF(E56="","",IF(E56&gt;1,"Nos.","No.")))</f>
         <v>No.</v>
       </c>
-      <c r="E56" s="364">
+      <c r="E56" s="363">
         <v>1</v>
       </c>
-      <c r="F56" s="363">
+      <c r="F56" s="362">
         <v>1000</v>
       </c>
-      <c r="G56" s="363">
+      <c r="G56" s="362">
         <f>F56*E56</f>
         <v>1000</v>
       </c>
-      <c r="H56" s="365">
+      <c r="H56" s="364">
         <v>1000</v>
       </c>
-      <c r="I56" s="366">
+      <c r="I56" s="365">
         <f>H56*E56</f>
         <v>1000</v>
       </c>
-      <c r="J56" s="367">
+      <c r="J56" s="366">
         <f>I56+G56</f>
         <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="438"/>
-      <c r="B57" s="403" t="s">
+      <c r="A57" s="437"/>
+      <c r="B57" s="402" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="428" t="s">
+      <c r="C57" s="427" t="s">
         <v>238</v>
       </c>
-      <c r="D57" s="398" t="str">
+      <c r="D57" s="397" t="str">
         <f>IF(C57="","",IF(E57="","",IF(E57&gt;1,"Nos.","No.")))</f>
         <v>Nos.</v>
       </c>
-      <c r="E57" s="399">
+      <c r="E57" s="398">
         <v>4</v>
       </c>
-      <c r="F57" s="392">
+      <c r="F57" s="391">
         <v>1500</v>
       </c>
-      <c r="G57" s="392">
+      <c r="G57" s="391">
         <f>F57*E57</f>
         <v>6000</v>
       </c>
-      <c r="H57" s="365">
+      <c r="H57" s="364">
         <v>1000</v>
       </c>
-      <c r="I57" s="395">
+      <c r="I57" s="394">
         <f>H57*E57</f>
         <v>4000</v>
       </c>
-      <c r="J57" s="396">
+      <c r="J57" s="395">
         <f>I57+G57</f>
         <v>10000</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="283"/>
-      <c r="B58" s="321"/>
-      <c r="C58" s="439" t="s">
+      <c r="A58" s="282"/>
+      <c r="B58" s="320"/>
+      <c r="C58" s="438" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="440"/>
-      <c r="E58" s="429"/>
-      <c r="F58" s="441"/>
-      <c r="G58" s="412">
+      <c r="D58" s="439"/>
+      <c r="E58" s="428"/>
+      <c r="F58" s="440"/>
+      <c r="G58" s="411">
         <f>SUM(G45:G57)</f>
         <v>461500</v>
       </c>
-      <c r="H58" s="442"/>
-      <c r="I58" s="412">
+      <c r="H58" s="441"/>
+      <c r="I58" s="411">
         <f>SUM(I45:I57)</f>
         <v>78000</v>
       </c>
-      <c r="J58" s="412">
+      <c r="J58" s="411">
         <f>SUM(J45:J57)</f>
         <v>539500</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="443"/>
-      <c r="B59" s="444"/>
-      <c r="C59" s="445" t="s">
+      <c r="A59" s="442"/>
+      <c r="B59" s="443"/>
+      <c r="C59" s="444" t="s">
         <v>239</v>
       </c>
-      <c r="D59" s="417"/>
-      <c r="E59" s="417"/>
-      <c r="F59" s="417"/>
-      <c r="G59" s="417"/>
-      <c r="H59" s="418"/>
-      <c r="I59" s="419"/>
-      <c r="J59" s="420"/>
+      <c r="D59" s="416"/>
+      <c r="E59" s="416"/>
+      <c r="F59" s="416"/>
+      <c r="G59" s="416"/>
+      <c r="H59" s="417"/>
+      <c r="I59" s="418"/>
+      <c r="J59" s="419"/>
     </row>
     <row r="60" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="443"/>
-      <c r="B60" s="444"/>
-      <c r="C60" s="324" t="s">
+      <c r="A60" s="442"/>
+      <c r="B60" s="443"/>
+      <c r="C60" s="323" t="s">
         <v>240</v>
       </c>
-      <c r="D60" s="369"/>
-      <c r="E60" s="369"/>
-      <c r="F60" s="369"/>
-      <c r="G60" s="369"/>
-      <c r="H60" s="421"/>
-      <c r="I60" s="422"/>
-      <c r="J60" s="423"/>
+      <c r="D60" s="368"/>
+      <c r="E60" s="368"/>
+      <c r="F60" s="368"/>
+      <c r="G60" s="368"/>
+      <c r="H60" s="420"/>
+      <c r="I60" s="421"/>
+      <c r="J60" s="422"/>
     </row>
     <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <f>4.1</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="B61" s="291"/>
-      <c r="C61" s="446" t="s">
+      <c r="B61" s="290"/>
+      <c r="C61" s="445" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="447"/>
-      <c r="E61" s="448"/>
-      <c r="F61" s="449"/>
-      <c r="G61" s="450"/>
-      <c r="H61" s="451"/>
-      <c r="I61" s="449"/>
-      <c r="J61" s="452"/>
+      <c r="D61" s="446"/>
+      <c r="E61" s="447"/>
+      <c r="F61" s="448"/>
+      <c r="G61" s="449"/>
+      <c r="H61" s="450"/>
+      <c r="I61" s="448"/>
+      <c r="J61" s="451"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="256"/>
-      <c r="B62" s="296" t="s">
+      <c r="A62" s="255"/>
+      <c r="B62" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="453" t="s">
+      <c r="C62" s="452" t="s">
         <v>242</v>
       </c>
-      <c r="D62" s="363" t="s">
+      <c r="D62" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="364">
+      <c r="E62" s="363">
         <v>17</v>
       </c>
-      <c r="F62" s="363">
+      <c r="F62" s="362">
         <v>21000</v>
       </c>
-      <c r="G62" s="363">
+      <c r="G62" s="362">
         <f>F62*E62</f>
         <v>357000</v>
       </c>
-      <c r="H62" s="365">
+      <c r="H62" s="364">
         <v>1000</v>
       </c>
-      <c r="I62" s="366">
+      <c r="I62" s="365">
         <f>H62*E62</f>
         <v>17000</v>
       </c>
-      <c r="J62" s="367">
+      <c r="J62" s="366">
         <f>I62+G62</f>
         <v>374000</v>
       </c>
-      <c r="L62" s="425"/>
+      <c r="L62" s="424"/>
     </row>
     <row r="63" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="256">
+      <c r="A63" s="255">
         <f>A61+0.1</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="B63" s="257"/>
-      <c r="C63" s="454" t="s">
+      <c r="B63" s="256"/>
+      <c r="C63" s="453" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="447"/>
-      <c r="E63" s="448"/>
-      <c r="F63" s="449"/>
-      <c r="G63" s="450"/>
-      <c r="H63" s="451"/>
-      <c r="I63" s="449"/>
-      <c r="J63" s="452"/>
+      <c r="D63" s="446"/>
+      <c r="E63" s="447"/>
+      <c r="F63" s="448"/>
+      <c r="G63" s="449"/>
+      <c r="H63" s="450"/>
+      <c r="I63" s="448"/>
+      <c r="J63" s="451"/>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="256"/>
-      <c r="B64" s="316" t="s">
+      <c r="A64" s="255"/>
+      <c r="B64" s="315" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="453" t="s">
+      <c r="C64" s="452" t="s">
         <v>244</v>
       </c>
-      <c r="D64" s="363" t="s">
+      <c r="D64" s="362" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="364">
+      <c r="E64" s="363">
         <v>27</v>
       </c>
-      <c r="F64" s="363">
+      <c r="F64" s="362">
         <v>14500</v>
       </c>
-      <c r="G64" s="363">
+      <c r="G64" s="362">
         <f>F64*E64</f>
         <v>391500</v>
       </c>
-      <c r="H64" s="365">
+      <c r="H64" s="364">
         <v>500</v>
       </c>
-      <c r="I64" s="366">
+      <c r="I64" s="365">
         <f>H64*E64</f>
         <v>13500</v>
       </c>
-      <c r="J64" s="367">
+      <c r="J64" s="366">
         <f>I64+G64</f>
         <v>405000</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="256">
+    <row r="65" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="255">
         <f>A63+0.1</f>
         <v>4.2999999999999989</v>
       </c>
-      <c r="B65" s="387"/>
-      <c r="C65" s="307" t="s">
+      <c r="B65" s="386"/>
+      <c r="C65" s="306" t="s">
         <v>245</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="455"/>
-      <c r="G65" s="369"/>
-      <c r="H65" s="421"/>
-      <c r="I65" s="456"/>
-      <c r="J65" s="423"/>
+      <c r="F65" s="454"/>
+      <c r="G65" s="368"/>
+      <c r="H65" s="420"/>
+      <c r="I65" s="455"/>
+      <c r="J65" s="422"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="256"/>
-      <c r="B66" s="387" t="s">
+      <c r="A66" s="255"/>
+      <c r="B66" s="386" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="457" t="s">
+      <c r="C66" s="456" t="s">
         <v>246</v>
       </c>
-      <c r="D66" s="363" t="s">
+      <c r="D66" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="364">
+      <c r="E66" s="363">
         <v>1</v>
       </c>
-      <c r="F66" s="363">
+      <c r="F66" s="362">
         <v>115000</v>
       </c>
-      <c r="G66" s="363">
+      <c r="G66" s="362">
         <f>F66*E66</f>
         <v>115000</v>
       </c>
-      <c r="H66" s="365">
+      <c r="H66" s="364">
         <v>35000</v>
       </c>
-      <c r="I66" s="366">
+      <c r="I66" s="365">
         <f>H66*E66</f>
         <v>35000</v>
       </c>
-      <c r="J66" s="367">
+      <c r="J66" s="366">
         <f>I66+G66</f>
         <v>150000</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="256">
+      <c r="A67" s="255">
         <f>A65+0.1</f>
         <v>4.3999999999999986</v>
       </c>
-      <c r="B67" s="387"/>
-      <c r="C67" s="258" t="s">
+      <c r="B67" s="386"/>
+      <c r="C67" s="257" t="s">
         <v>247</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="455"/>
-      <c r="G67" s="369"/>
-      <c r="H67" s="421"/>
-      <c r="I67" s="456"/>
-      <c r="J67" s="423"/>
+      <c r="F67" s="454"/>
+      <c r="G67" s="368"/>
+      <c r="H67" s="420"/>
+      <c r="I67" s="455"/>
+      <c r="J67" s="422"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="360"/>
-      <c r="B68" s="387" t="s">
+      <c r="A68" s="359"/>
+      <c r="B68" s="386" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D68" s="363" t="s">
+      <c r="D68" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="303">
+      <c r="E68" s="302">
         <v>1</v>
       </c>
-      <c r="F68" s="363">
+      <c r="F68" s="362">
         <v>492000</v>
       </c>
-      <c r="G68" s="363">
+      <c r="G68" s="362">
         <f>F68*E68</f>
         <v>492000</v>
       </c>
-      <c r="H68" s="365">
+      <c r="H68" s="364">
         <v>10000</v>
       </c>
-      <c r="I68" s="366">
+      <c r="I68" s="365">
         <f>H68*E68</f>
         <v>10000</v>
       </c>
-      <c r="J68" s="367">
+      <c r="J68" s="366">
         <f>I68+G68</f>
         <v>502000</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="360">
+      <c r="A69" s="359">
         <f>A67+0.1</f>
         <v>4.4999999999999982</v>
       </c>
-      <c r="B69" s="387"/>
-      <c r="C69" s="324" t="s">
+      <c r="B69" s="386"/>
+      <c r="C69" s="323" t="s">
         <v>249</v>
       </c>
-      <c r="D69" s="303" t="s">
+      <c r="D69" s="302" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="303">
+      <c r="E69" s="302">
         <v>1</v>
       </c>
-      <c r="F69" s="392">
+      <c r="F69" s="391">
         <v>215000</v>
       </c>
-      <c r="G69" s="392">
+      <c r="G69" s="391">
         <f>F69*E69</f>
         <v>215000</v>
       </c>
-      <c r="H69" s="394">
+      <c r="H69" s="393">
         <v>15000</v>
       </c>
-      <c r="I69" s="395">
+      <c r="I69" s="394">
         <f>H69*E69</f>
         <v>15000</v>
       </c>
-      <c r="J69" s="396">
+      <c r="J69" s="395">
         <f>I69+G69</f>
         <v>230000</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="325"/>
-      <c r="B70" s="326"/>
-      <c r="C70" s="409" t="s">
+      <c r="A70" s="324"/>
+      <c r="B70" s="325"/>
+      <c r="C70" s="408" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="429"/>
-      <c r="E70" s="429"/>
-      <c r="F70" s="410"/>
-      <c r="G70" s="412">
+      <c r="D70" s="428"/>
+      <c r="E70" s="428"/>
+      <c r="F70" s="409"/>
+      <c r="G70" s="411">
         <f>SUM(G62:G69)</f>
         <v>1570500</v>
       </c>
-      <c r="H70" s="429"/>
-      <c r="I70" s="412">
+      <c r="H70" s="428"/>
+      <c r="I70" s="411">
         <f>SUM(I62:I69)</f>
         <v>90500</v>
       </c>
-      <c r="J70" s="412">
+      <c r="J70" s="411">
         <f>SUM(J62:J69)</f>
         <v>1661000</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="256"/>
-      <c r="B71" s="257"/>
-      <c r="C71" s="458" t="s">
+      <c r="A71" s="255"/>
+      <c r="B71" s="256"/>
+      <c r="C71" s="457" t="s">
         <v>251</v>
       </c>
-      <c r="D71" s="417"/>
-      <c r="E71" s="417"/>
-      <c r="F71" s="417"/>
-      <c r="G71" s="417"/>
-      <c r="H71" s="418"/>
-      <c r="I71" s="419"/>
-      <c r="J71" s="420"/>
+      <c r="D71" s="416"/>
+      <c r="E71" s="416"/>
+      <c r="F71" s="416"/>
+      <c r="G71" s="416"/>
+      <c r="H71" s="417"/>
+      <c r="I71" s="418"/>
+      <c r="J71" s="419"/>
     </row>
     <row r="72" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="256"/>
-      <c r="B72" s="257"/>
-      <c r="C72" s="323" t="s">
+      <c r="A72" s="255"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="322" t="s">
         <v>252</v>
       </c>
-      <c r="D72" s="369"/>
-      <c r="E72" s="369"/>
-      <c r="F72" s="369"/>
-      <c r="G72" s="369"/>
-      <c r="H72" s="421"/>
-      <c r="I72" s="422"/>
-      <c r="J72" s="423"/>
+      <c r="D72" s="368"/>
+      <c r="E72" s="368"/>
+      <c r="F72" s="368"/>
+      <c r="G72" s="368"/>
+      <c r="H72" s="420"/>
+      <c r="I72" s="421"/>
+      <c r="J72" s="422"/>
     </row>
     <row r="73" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="256">
+      <c r="A73" s="255">
         <f>5.1</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="B73" s="257"/>
-      <c r="C73" s="324" t="s">
+      <c r="B73" s="256"/>
+      <c r="C73" s="323" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="363" t="s">
+      <c r="D73" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="364">
+      <c r="E73" s="363">
         <v>1</v>
       </c>
-      <c r="F73" s="363">
+      <c r="F73" s="362">
         <v>25000</v>
       </c>
-      <c r="G73" s="363">
+      <c r="G73" s="362">
         <f>F73*E73</f>
         <v>25000</v>
       </c>
-      <c r="H73" s="365">
+      <c r="H73" s="364">
         <v>15000</v>
       </c>
-      <c r="I73" s="366">
+      <c r="I73" s="365">
         <f>H73*E73</f>
         <v>15000</v>
       </c>
-      <c r="J73" s="367">
+      <c r="J73" s="366">
         <f>I73+G73</f>
         <v>40000</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="256">
+      <c r="A74" s="255">
         <f>A73+0.1</f>
         <v>5.1999999999999993</v>
       </c>
-      <c r="B74" s="257"/>
-      <c r="C74" s="324" t="s">
+      <c r="B74" s="256"/>
+      <c r="C74" s="323" t="s">
         <v>254</v>
       </c>
-      <c r="D74" s="363" t="s">
+      <c r="D74" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="364">
+      <c r="E74" s="363">
         <v>1</v>
       </c>
-      <c r="F74" s="363">
+      <c r="F74" s="362">
         <v>10000</v>
       </c>
-      <c r="G74" s="363">
+      <c r="G74" s="362">
         <f>F74*E74</f>
         <v>10000</v>
       </c>
-      <c r="H74" s="365">
+      <c r="H74" s="364">
         <v>15000</v>
       </c>
-      <c r="I74" s="366">
+      <c r="I74" s="365">
         <f>H74*E74</f>
         <v>15000</v>
       </c>
-      <c r="J74" s="367">
+      <c r="J74" s="366">
         <f>I74+G74</f>
         <v>25000</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="256">
+      <c r="A75" s="255">
         <f>A74+0.1</f>
         <v>5.2999999999999989</v>
       </c>
-      <c r="B75" s="257"/>
-      <c r="C75" s="324" t="s">
+      <c r="B75" s="256"/>
+      <c r="C75" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="D75" s="363" t="s">
+      <c r="D75" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="364">
+      <c r="E75" s="363">
         <v>1</v>
       </c>
-      <c r="F75" s="392">
+      <c r="F75" s="391">
         <v>0</v>
       </c>
-      <c r="G75" s="392">
+      <c r="G75" s="391">
         <f>F75*E75</f>
         <v>0</v>
       </c>
-      <c r="H75" s="394">
+      <c r="H75" s="393">
         <v>50000</v>
       </c>
-      <c r="I75" s="395">
+      <c r="I75" s="394">
         <f>H75*E75</f>
         <v>50000</v>
       </c>
-      <c r="J75" s="396">
+      <c r="J75" s="395">
         <f>I75+G75</f>
         <v>50000</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="496"/>
-      <c r="B76" s="497"/>
-      <c r="C76" s="409" t="s">
+      <c r="A76" s="498"/>
+      <c r="B76" s="499"/>
+      <c r="C76" s="408" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="429"/>
-      <c r="E76" s="429"/>
-      <c r="F76" s="410"/>
-      <c r="G76" s="412">
+      <c r="D76" s="428"/>
+      <c r="E76" s="428"/>
+      <c r="F76" s="409"/>
+      <c r="G76" s="411">
         <f>SUM(G73:G75)</f>
         <v>35000</v>
       </c>
-      <c r="H76" s="459"/>
-      <c r="I76" s="412">
+      <c r="H76" s="458"/>
+      <c r="I76" s="411">
         <f>SUM(I73:I75)</f>
         <v>80000</v>
       </c>
-      <c r="J76" s="412">
+      <c r="J76" s="411">
         <f>SUM(J73:J75)</f>
         <v>115000</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="460"/>
-      <c r="J77" s="461"/>
+      <c r="A77" s="459"/>
+      <c r="J77" s="460"/>
     </row>
     <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="462"/>
-      <c r="B78" s="463"/>
-      <c r="C78" s="464" t="s">
+      <c r="A78" s="461"/>
+      <c r="B78" s="462"/>
+      <c r="C78" s="463" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="465"/>
-      <c r="E78" s="466"/>
-      <c r="F78" s="467"/>
-      <c r="G78" s="468">
+      <c r="D78" s="464"/>
+      <c r="E78" s="465"/>
+      <c r="F78" s="466"/>
+      <c r="G78" s="467">
         <f>G76+G70+G58+G41+G31</f>
         <v>3610750</v>
       </c>
-      <c r="H78" s="469"/>
-      <c r="I78" s="468">
+      <c r="H78" s="468"/>
+      <c r="I78" s="467">
         <f>I76+I70+I58+I41+I31</f>
         <v>439750</v>
       </c>
-      <c r="J78" s="468">
+      <c r="J78" s="467">
         <f>J76+J70+J58+J41+J31</f>
         <v>4050500</v>
       </c>
